--- a/src/spz/templates/export/spanisch_otros.xlsx
+++ b/src/spz/templates/export/spanisch_otros.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
-  <workbookPr updateLinks="never" autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
+  <workbookPr updateLinks="never" codeName="DieseArbeitsmappe" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tims\Code\Workspace\SPZ\git\src\spz\spz\templates\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tims\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4EBDB8-B434-462D-B589-E6AE488DA45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{740497A5-145F-4F42-8D81-C691DAFD89CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
-    <sheet name="Spanisch" sheetId="9" r:id="rId2"/>
+    <sheet name="Notenliste" sheetId="9" r:id="rId2"/>
     <sheet name="Notenverteilung" sheetId="8" r:id="rId3"/>
     <sheet name="Printlist" sheetId="10" r:id="rId4"/>
     <sheet name="Paricipantlist" sheetId="12" r:id="rId5"/>
     <sheet name="Teilnehmer" sheetId="13" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="kursname">Notenliste!$A$41:$A$49</definedName>
+    <definedName name="semester">Notenliste!$D$41:$D$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,6 +32,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -234,36 +239,6 @@
     <t>Kursname-Zusatz</t>
   </si>
   <si>
-    <t>SS 2016</t>
-  </si>
-  <si>
-    <t>WS 2016/2017</t>
-  </si>
-  <si>
-    <t>SS 2017</t>
-  </si>
-  <si>
-    <t>WS 2017/2018</t>
-  </si>
-  <si>
-    <t>SS 2018</t>
-  </si>
-  <si>
-    <t>WS 2018/2019</t>
-  </si>
-  <si>
-    <t>SS 2019</t>
-  </si>
-  <si>
-    <t>WS 2019/2020</t>
-  </si>
-  <si>
-    <t>SS 2020</t>
-  </si>
-  <si>
-    <t>WS 2020/2021</t>
-  </si>
-  <si>
     <t>SS 2021</t>
   </si>
   <si>
@@ -343,6 +318,36 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>WS 2021/2022</t>
+  </si>
+  <si>
+    <t>SS 2022</t>
+  </si>
+  <si>
+    <t>WS 2022/2023</t>
+  </si>
+  <si>
+    <t>SS 2023</t>
+  </si>
+  <si>
+    <t>WS 2023/2024</t>
+  </si>
+  <si>
+    <t>SS 2024</t>
+  </si>
+  <si>
+    <t>WS 2024/2025</t>
+  </si>
+  <si>
+    <t>SS 2025</t>
+  </si>
+  <si>
+    <t>WS 2025/2026</t>
+  </si>
+  <si>
+    <t>SS 2026</t>
   </si>
   <si>
     <t>applicant.last_name</t>
@@ -370,7 +375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,6 +421,12 @@
       <color rgb="FFCCCC00"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -718,9 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -814,9 +822,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -870,13 +875,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -903,43 +956,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1212,39 +1228,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{93C18BCC-5936-412C-A782-83C97D85F2BD}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="B1:G2" xr:uid="{70124314-EC2D-42AB-8B17-A9B696063CC7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F071B558-2D29-4924-BF6D-71D5CCBC9266}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0">
+  <autoFilter ref="B1:G2" xr:uid="{F071B558-2D29-4924-BF6D-71D5CCBC9266}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{69DEFCDC-097F-4C43-8CA7-098FDE0D1F92}" name="Nachname" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{E46A512F-7B21-4CD5-AA6D-258DD747F436}" name="Vorname" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{43F7DC08-43B3-44F9-8C26-005A84D96480}" name="Hochschule" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{6B3ABB9B-C1A4-4613-9B20-6E2B91131898}" name="Matrikelnummer" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{F5B24044-9C50-4076-AAF4-ACF4AD67E4C3}" name="E-Mail" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{45391FB0-FF9A-4B81-905B-9D1272998BF9}" name="Telefon" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{0A2C1BEB-C8CC-4C28-9A25-CFE79D91CC7C}" name="Nachname" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{9F21237A-604B-4DBE-97B9-63037F1216BD}" name="Vorname" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{02ADBA4F-F812-45D4-A5FB-C287C4911783}" name="Hochschule" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{56BEACE7-47BB-4B4C-ABC1-5E6B94EF6D97}" name="Matrikelnummer" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{01B0D862-1BA4-4912-B420-49A9CA879F3F}" name="E-Mail" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{29630066-C378-41AF-9F95-8E20C0BE6E2B}" name="Telefon" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Teilnehmerliste" displayName="Teilnehmerliste" ref="A1:H26" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
-      <calculatedColumnFormula>IF(Spanisch!D2=0," ",Spanisch!D2)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="15" totalsRowDxfId="14">
+      <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="5">
-      <calculatedColumnFormula>IF(Spanisch!D2&lt;&gt;0,Spanisch!$B$33," ")</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="13">
+      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
-      <calculatedColumnFormula>IF(Spanisch!F2="KP"," ",IF(Spanisch!F2="NB","nicht bestanden",Spanisch!F2))</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="12" totalsRowDxfId="11">
+      <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="2">
-      <calculatedColumnFormula>IF(Spanisch!D2&lt;&gt;0,Spanisch!$B$37," ")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="10">
+      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="8"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1538,46 +1554,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.41796875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="26.15625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="13.15625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="17.83984375" style="45" customWidth="1"/>
-    <col min="6" max="6" width="31.83984375" style="44" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.83984375" style="44" customWidth="1"/>
-    <col min="8" max="8" width="45.15625" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.41796875" style="44" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.41796875" hidden="1"/>
+    <col min="1" max="1" width="3.73046875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" style="43" customWidth="1"/>
+    <col min="3" max="3" width="26.1328125" style="43" customWidth="1"/>
+    <col min="4" max="4" width="13.1328125" style="43" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="31.86328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.86328125" style="43" customWidth="1"/>
+    <col min="8" max="8" width="45.1328125" style="43" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" style="43" hidden="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.3984375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="93" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="93" t="s">
         <v>21</v>
       </c>
       <c r="H1" s="42" t="s">
@@ -1587,178 +1604,178 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="43" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="21">
         <v>3</v>
       </c>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="21">
         <v>4</v>
       </c>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="21">
         <v>5</v>
       </c>
-      <c r="E6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="43"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="21">
         <v>6</v>
       </c>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="43"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="21">
         <v>7</v>
       </c>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="43"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="21">
         <v>8</v>
       </c>
-      <c r="E9" s="44"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="43"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="21">
         <v>9</v>
       </c>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="21">
         <v>10</v>
       </c>
-      <c r="E11" s="44"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="43"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="21">
         <v>11</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="G12" s="46"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="45"/>
+      <c r="G12" s="45"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="21">
         <v>12</v>
       </c>
-      <c r="E13" s="46"/>
-      <c r="G13" s="46"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="45"/>
+      <c r="G13" s="45"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="21">
         <v>13</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="G14" s="46"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="45"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="21">
         <v>14</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="G15" s="46"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="45"/>
+      <c r="G15" s="45"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="21">
         <v>15</v>
       </c>
-      <c r="E16" s="46"/>
-      <c r="G16" s="46"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="45"/>
+      <c r="G16" s="45"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="21">
         <v>16</v>
       </c>
-      <c r="E17" s="46"/>
-      <c r="G17" s="46"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="45"/>
+      <c r="G17" s="45"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="21">
         <v>17</v>
       </c>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="21">
         <v>18</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="21">
         <v>19</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="21">
         <v>20</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="21">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="21">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="21">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="21">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -1779,554 +1796,554 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WVW60"/>
+  <dimension ref="A1:WVW59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView showZeros="0" topLeftCell="A5" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.3" zeroHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.68359375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.41796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.41796875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="23.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="3" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
-    <col min="5" max="5" width="22.26171875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="16.83984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.68359375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.68359375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.68359375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.68359375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.68359375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.265625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="16.86328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.73046875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.73046875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.73046875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.73046875" style="1" customWidth="1"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.41796875" style="1" hidden="1"/>
-    <col min="14" max="14" width="5.15625" style="1" hidden="1"/>
-    <col min="15" max="15" width="6.83984375" style="2" hidden="1"/>
-    <col min="16" max="16" width="17.68359375" style="1" hidden="1"/>
+    <col min="13" max="13" width="6.3984375" style="1" hidden="1"/>
+    <col min="14" max="14" width="5.1328125" style="1" hidden="1"/>
+    <col min="15" max="15" width="6.86328125" style="2" hidden="1"/>
+    <col min="16" max="16" width="17.73046875" style="1" hidden="1"/>
     <col min="17" max="17" width="16" style="1" hidden="1"/>
-    <col min="18" max="18" width="17.68359375" style="1" hidden="1"/>
-    <col min="19" max="243" width="11.41796875" style="1" hidden="1"/>
-    <col min="244" max="244" width="15.41796875" style="1" hidden="1"/>
-    <col min="245" max="245" width="11.41796875" style="1" hidden="1"/>
-    <col min="246" max="246" width="15.68359375" style="1" hidden="1"/>
-    <col min="247" max="247" width="21.83984375" style="1" hidden="1"/>
-    <col min="248" max="250" width="11.41796875" style="1" hidden="1"/>
+    <col min="18" max="18" width="17.73046875" style="1" hidden="1"/>
+    <col min="19" max="243" width="11.3984375" style="1" hidden="1"/>
+    <col min="244" max="244" width="15.3984375" style="1" hidden="1"/>
+    <col min="245" max="245" width="11.3984375" style="1" hidden="1"/>
+    <col min="246" max="246" width="15.73046875" style="1" hidden="1"/>
+    <col min="247" max="247" width="21.86328125" style="1" hidden="1"/>
+    <col min="248" max="250" width="11.3984375" style="1" hidden="1"/>
     <col min="251" max="251" width="16" style="1" hidden="1"/>
-    <col min="252" max="252" width="20.41796875" style="1" hidden="1"/>
-    <col min="253" max="499" width="11.41796875" style="1" hidden="1"/>
-    <col min="500" max="500" width="15.41796875" style="1" hidden="1"/>
-    <col min="501" max="501" width="11.41796875" style="1" hidden="1"/>
-    <col min="502" max="502" width="15.68359375" style="1" hidden="1"/>
-    <col min="503" max="503" width="21.83984375" style="1" hidden="1"/>
-    <col min="504" max="506" width="11.41796875" style="1" hidden="1"/>
+    <col min="252" max="252" width="20.3984375" style="1" hidden="1"/>
+    <col min="253" max="499" width="11.3984375" style="1" hidden="1"/>
+    <col min="500" max="500" width="15.3984375" style="1" hidden="1"/>
+    <col min="501" max="501" width="11.3984375" style="1" hidden="1"/>
+    <col min="502" max="502" width="15.73046875" style="1" hidden="1"/>
+    <col min="503" max="503" width="21.86328125" style="1" hidden="1"/>
+    <col min="504" max="506" width="11.3984375" style="1" hidden="1"/>
     <col min="507" max="507" width="16" style="1" hidden="1"/>
-    <col min="508" max="508" width="20.41796875" style="1" hidden="1"/>
-    <col min="509" max="755" width="11.41796875" style="1" hidden="1"/>
-    <col min="756" max="756" width="15.41796875" style="1" hidden="1"/>
-    <col min="757" max="757" width="11.41796875" style="1" hidden="1"/>
-    <col min="758" max="758" width="15.68359375" style="1" hidden="1"/>
-    <col min="759" max="759" width="21.83984375" style="1" hidden="1"/>
-    <col min="760" max="762" width="11.41796875" style="1" hidden="1"/>
+    <col min="508" max="508" width="20.3984375" style="1" hidden="1"/>
+    <col min="509" max="755" width="11.3984375" style="1" hidden="1"/>
+    <col min="756" max="756" width="15.3984375" style="1" hidden="1"/>
+    <col min="757" max="757" width="11.3984375" style="1" hidden="1"/>
+    <col min="758" max="758" width="15.73046875" style="1" hidden="1"/>
+    <col min="759" max="759" width="21.86328125" style="1" hidden="1"/>
+    <col min="760" max="762" width="11.3984375" style="1" hidden="1"/>
     <col min="763" max="763" width="16" style="1" hidden="1"/>
-    <col min="764" max="764" width="20.41796875" style="1" hidden="1"/>
-    <col min="765" max="1011" width="11.41796875" style="1" hidden="1"/>
-    <col min="1012" max="1012" width="15.41796875" style="1" hidden="1"/>
-    <col min="1013" max="1013" width="11.41796875" style="1" hidden="1"/>
-    <col min="1014" max="1014" width="15.68359375" style="1" hidden="1"/>
-    <col min="1015" max="1015" width="21.83984375" style="1" hidden="1"/>
-    <col min="1016" max="1018" width="11.41796875" style="1" hidden="1"/>
+    <col min="764" max="764" width="20.3984375" style="1" hidden="1"/>
+    <col min="765" max="1011" width="11.3984375" style="1" hidden="1"/>
+    <col min="1012" max="1012" width="15.3984375" style="1" hidden="1"/>
+    <col min="1013" max="1013" width="11.3984375" style="1" hidden="1"/>
+    <col min="1014" max="1014" width="15.73046875" style="1" hidden="1"/>
+    <col min="1015" max="1015" width="21.86328125" style="1" hidden="1"/>
+    <col min="1016" max="1018" width="11.3984375" style="1" hidden="1"/>
     <col min="1019" max="1019" width="16" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="20.41796875" style="1" hidden="1"/>
-    <col min="1021" max="1267" width="11.41796875" style="1" hidden="1"/>
-    <col min="1268" max="1268" width="15.41796875" style="1" hidden="1"/>
-    <col min="1269" max="1269" width="11.41796875" style="1" hidden="1"/>
-    <col min="1270" max="1270" width="15.68359375" style="1" hidden="1"/>
-    <col min="1271" max="1271" width="21.83984375" style="1" hidden="1"/>
-    <col min="1272" max="1274" width="11.41796875" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="20.3984375" style="1" hidden="1"/>
+    <col min="1021" max="1267" width="11.3984375" style="1" hidden="1"/>
+    <col min="1268" max="1268" width="15.3984375" style="1" hidden="1"/>
+    <col min="1269" max="1269" width="11.3984375" style="1" hidden="1"/>
+    <col min="1270" max="1270" width="15.73046875" style="1" hidden="1"/>
+    <col min="1271" max="1271" width="21.86328125" style="1" hidden="1"/>
+    <col min="1272" max="1274" width="11.3984375" style="1" hidden="1"/>
     <col min="1275" max="1275" width="16" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="20.41796875" style="1" hidden="1"/>
-    <col min="1277" max="1523" width="11.41796875" style="1" hidden="1"/>
-    <col min="1524" max="1524" width="15.41796875" style="1" hidden="1"/>
-    <col min="1525" max="1525" width="11.41796875" style="1" hidden="1"/>
-    <col min="1526" max="1526" width="15.68359375" style="1" hidden="1"/>
-    <col min="1527" max="1527" width="21.83984375" style="1" hidden="1"/>
-    <col min="1528" max="1530" width="11.41796875" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="20.3984375" style="1" hidden="1"/>
+    <col min="1277" max="1523" width="11.3984375" style="1" hidden="1"/>
+    <col min="1524" max="1524" width="15.3984375" style="1" hidden="1"/>
+    <col min="1525" max="1525" width="11.3984375" style="1" hidden="1"/>
+    <col min="1526" max="1526" width="15.73046875" style="1" hidden="1"/>
+    <col min="1527" max="1527" width="21.86328125" style="1" hidden="1"/>
+    <col min="1528" max="1530" width="11.3984375" style="1" hidden="1"/>
     <col min="1531" max="1531" width="16" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="20.41796875" style="1" hidden="1"/>
-    <col min="1533" max="1779" width="11.41796875" style="1" hidden="1"/>
-    <col min="1780" max="1780" width="15.41796875" style="1" hidden="1"/>
-    <col min="1781" max="1781" width="11.41796875" style="1" hidden="1"/>
-    <col min="1782" max="1782" width="15.68359375" style="1" hidden="1"/>
-    <col min="1783" max="1783" width="21.83984375" style="1" hidden="1"/>
-    <col min="1784" max="1786" width="11.41796875" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="20.3984375" style="1" hidden="1"/>
+    <col min="1533" max="1779" width="11.3984375" style="1" hidden="1"/>
+    <col min="1780" max="1780" width="15.3984375" style="1" hidden="1"/>
+    <col min="1781" max="1781" width="11.3984375" style="1" hidden="1"/>
+    <col min="1782" max="1782" width="15.73046875" style="1" hidden="1"/>
+    <col min="1783" max="1783" width="21.86328125" style="1" hidden="1"/>
+    <col min="1784" max="1786" width="11.3984375" style="1" hidden="1"/>
     <col min="1787" max="1787" width="16" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="20.41796875" style="1" hidden="1"/>
-    <col min="1789" max="2035" width="11.41796875" style="1" hidden="1"/>
-    <col min="2036" max="2036" width="15.41796875" style="1" hidden="1"/>
-    <col min="2037" max="2037" width="11.41796875" style="1" hidden="1"/>
-    <col min="2038" max="2038" width="15.68359375" style="1" hidden="1"/>
-    <col min="2039" max="2039" width="21.83984375" style="1" hidden="1"/>
-    <col min="2040" max="2042" width="11.41796875" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="20.3984375" style="1" hidden="1"/>
+    <col min="1789" max="2035" width="11.3984375" style="1" hidden="1"/>
+    <col min="2036" max="2036" width="15.3984375" style="1" hidden="1"/>
+    <col min="2037" max="2037" width="11.3984375" style="1" hidden="1"/>
+    <col min="2038" max="2038" width="15.73046875" style="1" hidden="1"/>
+    <col min="2039" max="2039" width="21.86328125" style="1" hidden="1"/>
+    <col min="2040" max="2042" width="11.3984375" style="1" hidden="1"/>
     <col min="2043" max="2043" width="16" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="20.41796875" style="1" hidden="1"/>
-    <col min="2045" max="2291" width="11.41796875" style="1" hidden="1"/>
-    <col min="2292" max="2292" width="15.41796875" style="1" hidden="1"/>
-    <col min="2293" max="2293" width="11.41796875" style="1" hidden="1"/>
-    <col min="2294" max="2294" width="15.68359375" style="1" hidden="1"/>
-    <col min="2295" max="2295" width="21.83984375" style="1" hidden="1"/>
-    <col min="2296" max="2298" width="11.41796875" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="20.3984375" style="1" hidden="1"/>
+    <col min="2045" max="2291" width="11.3984375" style="1" hidden="1"/>
+    <col min="2292" max="2292" width="15.3984375" style="1" hidden="1"/>
+    <col min="2293" max="2293" width="11.3984375" style="1" hidden="1"/>
+    <col min="2294" max="2294" width="15.73046875" style="1" hidden="1"/>
+    <col min="2295" max="2295" width="21.86328125" style="1" hidden="1"/>
+    <col min="2296" max="2298" width="11.3984375" style="1" hidden="1"/>
     <col min="2299" max="2299" width="16" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="20.41796875" style="1" hidden="1"/>
-    <col min="2301" max="2547" width="11.41796875" style="1" hidden="1"/>
-    <col min="2548" max="2548" width="15.41796875" style="1" hidden="1"/>
-    <col min="2549" max="2549" width="11.41796875" style="1" hidden="1"/>
-    <col min="2550" max="2550" width="15.68359375" style="1" hidden="1"/>
-    <col min="2551" max="2551" width="21.83984375" style="1" hidden="1"/>
-    <col min="2552" max="2554" width="11.41796875" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="20.3984375" style="1" hidden="1"/>
+    <col min="2301" max="2547" width="11.3984375" style="1" hidden="1"/>
+    <col min="2548" max="2548" width="15.3984375" style="1" hidden="1"/>
+    <col min="2549" max="2549" width="11.3984375" style="1" hidden="1"/>
+    <col min="2550" max="2550" width="15.73046875" style="1" hidden="1"/>
+    <col min="2551" max="2551" width="21.86328125" style="1" hidden="1"/>
+    <col min="2552" max="2554" width="11.3984375" style="1" hidden="1"/>
     <col min="2555" max="2555" width="16" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="20.41796875" style="1" hidden="1"/>
-    <col min="2557" max="2803" width="11.41796875" style="1" hidden="1"/>
-    <col min="2804" max="2804" width="15.41796875" style="1" hidden="1"/>
-    <col min="2805" max="2805" width="11.41796875" style="1" hidden="1"/>
-    <col min="2806" max="2806" width="15.68359375" style="1" hidden="1"/>
-    <col min="2807" max="2807" width="21.83984375" style="1" hidden="1"/>
-    <col min="2808" max="2810" width="11.41796875" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="20.3984375" style="1" hidden="1"/>
+    <col min="2557" max="2803" width="11.3984375" style="1" hidden="1"/>
+    <col min="2804" max="2804" width="15.3984375" style="1" hidden="1"/>
+    <col min="2805" max="2805" width="11.3984375" style="1" hidden="1"/>
+    <col min="2806" max="2806" width="15.73046875" style="1" hidden="1"/>
+    <col min="2807" max="2807" width="21.86328125" style="1" hidden="1"/>
+    <col min="2808" max="2810" width="11.3984375" style="1" hidden="1"/>
     <col min="2811" max="2811" width="16" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="20.41796875" style="1" hidden="1"/>
-    <col min="2813" max="3059" width="11.41796875" style="1" hidden="1"/>
-    <col min="3060" max="3060" width="15.41796875" style="1" hidden="1"/>
-    <col min="3061" max="3061" width="11.41796875" style="1" hidden="1"/>
-    <col min="3062" max="3062" width="15.68359375" style="1" hidden="1"/>
-    <col min="3063" max="3063" width="21.83984375" style="1" hidden="1"/>
-    <col min="3064" max="3066" width="11.41796875" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="20.3984375" style="1" hidden="1"/>
+    <col min="2813" max="3059" width="11.3984375" style="1" hidden="1"/>
+    <col min="3060" max="3060" width="15.3984375" style="1" hidden="1"/>
+    <col min="3061" max="3061" width="11.3984375" style="1" hidden="1"/>
+    <col min="3062" max="3062" width="15.73046875" style="1" hidden="1"/>
+    <col min="3063" max="3063" width="21.86328125" style="1" hidden="1"/>
+    <col min="3064" max="3066" width="11.3984375" style="1" hidden="1"/>
     <col min="3067" max="3067" width="16" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="20.41796875" style="1" hidden="1"/>
-    <col min="3069" max="3315" width="11.41796875" style="1" hidden="1"/>
-    <col min="3316" max="3316" width="15.41796875" style="1" hidden="1"/>
-    <col min="3317" max="3317" width="11.41796875" style="1" hidden="1"/>
-    <col min="3318" max="3318" width="15.68359375" style="1" hidden="1"/>
-    <col min="3319" max="3319" width="21.83984375" style="1" hidden="1"/>
-    <col min="3320" max="3322" width="11.41796875" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="20.3984375" style="1" hidden="1"/>
+    <col min="3069" max="3315" width="11.3984375" style="1" hidden="1"/>
+    <col min="3316" max="3316" width="15.3984375" style="1" hidden="1"/>
+    <col min="3317" max="3317" width="11.3984375" style="1" hidden="1"/>
+    <col min="3318" max="3318" width="15.73046875" style="1" hidden="1"/>
+    <col min="3319" max="3319" width="21.86328125" style="1" hidden="1"/>
+    <col min="3320" max="3322" width="11.3984375" style="1" hidden="1"/>
     <col min="3323" max="3323" width="16" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="20.41796875" style="1" hidden="1"/>
-    <col min="3325" max="3571" width="11.41796875" style="1" hidden="1"/>
-    <col min="3572" max="3572" width="15.41796875" style="1" hidden="1"/>
-    <col min="3573" max="3573" width="11.41796875" style="1" hidden="1"/>
-    <col min="3574" max="3574" width="15.68359375" style="1" hidden="1"/>
-    <col min="3575" max="3575" width="21.83984375" style="1" hidden="1"/>
-    <col min="3576" max="3578" width="11.41796875" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="20.3984375" style="1" hidden="1"/>
+    <col min="3325" max="3571" width="11.3984375" style="1" hidden="1"/>
+    <col min="3572" max="3572" width="15.3984375" style="1" hidden="1"/>
+    <col min="3573" max="3573" width="11.3984375" style="1" hidden="1"/>
+    <col min="3574" max="3574" width="15.73046875" style="1" hidden="1"/>
+    <col min="3575" max="3575" width="21.86328125" style="1" hidden="1"/>
+    <col min="3576" max="3578" width="11.3984375" style="1" hidden="1"/>
     <col min="3579" max="3579" width="16" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="20.41796875" style="1" hidden="1"/>
-    <col min="3581" max="3827" width="11.41796875" style="1" hidden="1"/>
-    <col min="3828" max="3828" width="15.41796875" style="1" hidden="1"/>
-    <col min="3829" max="3829" width="11.41796875" style="1" hidden="1"/>
-    <col min="3830" max="3830" width="15.68359375" style="1" hidden="1"/>
-    <col min="3831" max="3831" width="21.83984375" style="1" hidden="1"/>
-    <col min="3832" max="3834" width="11.41796875" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="20.3984375" style="1" hidden="1"/>
+    <col min="3581" max="3827" width="11.3984375" style="1" hidden="1"/>
+    <col min="3828" max="3828" width="15.3984375" style="1" hidden="1"/>
+    <col min="3829" max="3829" width="11.3984375" style="1" hidden="1"/>
+    <col min="3830" max="3830" width="15.73046875" style="1" hidden="1"/>
+    <col min="3831" max="3831" width="21.86328125" style="1" hidden="1"/>
+    <col min="3832" max="3834" width="11.3984375" style="1" hidden="1"/>
     <col min="3835" max="3835" width="16" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="20.41796875" style="1" hidden="1"/>
-    <col min="3837" max="4083" width="11.41796875" style="1" hidden="1"/>
-    <col min="4084" max="4084" width="15.41796875" style="1" hidden="1"/>
-    <col min="4085" max="4085" width="11.41796875" style="1" hidden="1"/>
-    <col min="4086" max="4086" width="15.68359375" style="1" hidden="1"/>
-    <col min="4087" max="4087" width="21.83984375" style="1" hidden="1"/>
-    <col min="4088" max="4090" width="11.41796875" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="20.3984375" style="1" hidden="1"/>
+    <col min="3837" max="4083" width="11.3984375" style="1" hidden="1"/>
+    <col min="4084" max="4084" width="15.3984375" style="1" hidden="1"/>
+    <col min="4085" max="4085" width="11.3984375" style="1" hidden="1"/>
+    <col min="4086" max="4086" width="15.73046875" style="1" hidden="1"/>
+    <col min="4087" max="4087" width="21.86328125" style="1" hidden="1"/>
+    <col min="4088" max="4090" width="11.3984375" style="1" hidden="1"/>
     <col min="4091" max="4091" width="16" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="20.41796875" style="1" hidden="1"/>
-    <col min="4093" max="4339" width="11.41796875" style="1" hidden="1"/>
-    <col min="4340" max="4340" width="15.41796875" style="1" hidden="1"/>
-    <col min="4341" max="4341" width="11.41796875" style="1" hidden="1"/>
-    <col min="4342" max="4342" width="15.68359375" style="1" hidden="1"/>
-    <col min="4343" max="4343" width="21.83984375" style="1" hidden="1"/>
-    <col min="4344" max="4346" width="11.41796875" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="20.3984375" style="1" hidden="1"/>
+    <col min="4093" max="4339" width="11.3984375" style="1" hidden="1"/>
+    <col min="4340" max="4340" width="15.3984375" style="1" hidden="1"/>
+    <col min="4341" max="4341" width="11.3984375" style="1" hidden="1"/>
+    <col min="4342" max="4342" width="15.73046875" style="1" hidden="1"/>
+    <col min="4343" max="4343" width="21.86328125" style="1" hidden="1"/>
+    <col min="4344" max="4346" width="11.3984375" style="1" hidden="1"/>
     <col min="4347" max="4347" width="16" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="20.41796875" style="1" hidden="1"/>
-    <col min="4349" max="4595" width="11.41796875" style="1" hidden="1"/>
-    <col min="4596" max="4596" width="15.41796875" style="1" hidden="1"/>
-    <col min="4597" max="4597" width="11.41796875" style="1" hidden="1"/>
-    <col min="4598" max="4598" width="15.68359375" style="1" hidden="1"/>
-    <col min="4599" max="4599" width="21.83984375" style="1" hidden="1"/>
-    <col min="4600" max="4602" width="11.41796875" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="20.3984375" style="1" hidden="1"/>
+    <col min="4349" max="4595" width="11.3984375" style="1" hidden="1"/>
+    <col min="4596" max="4596" width="15.3984375" style="1" hidden="1"/>
+    <col min="4597" max="4597" width="11.3984375" style="1" hidden="1"/>
+    <col min="4598" max="4598" width="15.73046875" style="1" hidden="1"/>
+    <col min="4599" max="4599" width="21.86328125" style="1" hidden="1"/>
+    <col min="4600" max="4602" width="11.3984375" style="1" hidden="1"/>
     <col min="4603" max="4603" width="16" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="20.41796875" style="1" hidden="1"/>
-    <col min="4605" max="4851" width="11.41796875" style="1" hidden="1"/>
-    <col min="4852" max="4852" width="15.41796875" style="1" hidden="1"/>
-    <col min="4853" max="4853" width="11.41796875" style="1" hidden="1"/>
-    <col min="4854" max="4854" width="15.68359375" style="1" hidden="1"/>
-    <col min="4855" max="4855" width="21.83984375" style="1" hidden="1"/>
-    <col min="4856" max="4858" width="11.41796875" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="20.3984375" style="1" hidden="1"/>
+    <col min="4605" max="4851" width="11.3984375" style="1" hidden="1"/>
+    <col min="4852" max="4852" width="15.3984375" style="1" hidden="1"/>
+    <col min="4853" max="4853" width="11.3984375" style="1" hidden="1"/>
+    <col min="4854" max="4854" width="15.73046875" style="1" hidden="1"/>
+    <col min="4855" max="4855" width="21.86328125" style="1" hidden="1"/>
+    <col min="4856" max="4858" width="11.3984375" style="1" hidden="1"/>
     <col min="4859" max="4859" width="16" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="20.41796875" style="1" hidden="1"/>
-    <col min="4861" max="5107" width="11.41796875" style="1" hidden="1"/>
-    <col min="5108" max="5108" width="15.41796875" style="1" hidden="1"/>
-    <col min="5109" max="5109" width="11.41796875" style="1" hidden="1"/>
-    <col min="5110" max="5110" width="15.68359375" style="1" hidden="1"/>
-    <col min="5111" max="5111" width="21.83984375" style="1" hidden="1"/>
-    <col min="5112" max="5114" width="11.41796875" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="20.3984375" style="1" hidden="1"/>
+    <col min="4861" max="5107" width="11.3984375" style="1" hidden="1"/>
+    <col min="5108" max="5108" width="15.3984375" style="1" hidden="1"/>
+    <col min="5109" max="5109" width="11.3984375" style="1" hidden="1"/>
+    <col min="5110" max="5110" width="15.73046875" style="1" hidden="1"/>
+    <col min="5111" max="5111" width="21.86328125" style="1" hidden="1"/>
+    <col min="5112" max="5114" width="11.3984375" style="1" hidden="1"/>
     <col min="5115" max="5115" width="16" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="20.41796875" style="1" hidden="1"/>
-    <col min="5117" max="5363" width="11.41796875" style="1" hidden="1"/>
-    <col min="5364" max="5364" width="15.41796875" style="1" hidden="1"/>
-    <col min="5365" max="5365" width="11.41796875" style="1" hidden="1"/>
-    <col min="5366" max="5366" width="15.68359375" style="1" hidden="1"/>
-    <col min="5367" max="5367" width="21.83984375" style="1" hidden="1"/>
-    <col min="5368" max="5370" width="11.41796875" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="20.3984375" style="1" hidden="1"/>
+    <col min="5117" max="5363" width="11.3984375" style="1" hidden="1"/>
+    <col min="5364" max="5364" width="15.3984375" style="1" hidden="1"/>
+    <col min="5365" max="5365" width="11.3984375" style="1" hidden="1"/>
+    <col min="5366" max="5366" width="15.73046875" style="1" hidden="1"/>
+    <col min="5367" max="5367" width="21.86328125" style="1" hidden="1"/>
+    <col min="5368" max="5370" width="11.3984375" style="1" hidden="1"/>
     <col min="5371" max="5371" width="16" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="20.41796875" style="1" hidden="1"/>
-    <col min="5373" max="5619" width="11.41796875" style="1" hidden="1"/>
-    <col min="5620" max="5620" width="15.41796875" style="1" hidden="1"/>
-    <col min="5621" max="5621" width="11.41796875" style="1" hidden="1"/>
-    <col min="5622" max="5622" width="15.68359375" style="1" hidden="1"/>
-    <col min="5623" max="5623" width="21.83984375" style="1" hidden="1"/>
-    <col min="5624" max="5626" width="11.41796875" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="20.3984375" style="1" hidden="1"/>
+    <col min="5373" max="5619" width="11.3984375" style="1" hidden="1"/>
+    <col min="5620" max="5620" width="15.3984375" style="1" hidden="1"/>
+    <col min="5621" max="5621" width="11.3984375" style="1" hidden="1"/>
+    <col min="5622" max="5622" width="15.73046875" style="1" hidden="1"/>
+    <col min="5623" max="5623" width="21.86328125" style="1" hidden="1"/>
+    <col min="5624" max="5626" width="11.3984375" style="1" hidden="1"/>
     <col min="5627" max="5627" width="16" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="20.41796875" style="1" hidden="1"/>
-    <col min="5629" max="5875" width="11.41796875" style="1" hidden="1"/>
-    <col min="5876" max="5876" width="15.41796875" style="1" hidden="1"/>
-    <col min="5877" max="5877" width="11.41796875" style="1" hidden="1"/>
-    <col min="5878" max="5878" width="15.68359375" style="1" hidden="1"/>
-    <col min="5879" max="5879" width="21.83984375" style="1" hidden="1"/>
-    <col min="5880" max="5882" width="11.41796875" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="20.3984375" style="1" hidden="1"/>
+    <col min="5629" max="5875" width="11.3984375" style="1" hidden="1"/>
+    <col min="5876" max="5876" width="15.3984375" style="1" hidden="1"/>
+    <col min="5877" max="5877" width="11.3984375" style="1" hidden="1"/>
+    <col min="5878" max="5878" width="15.73046875" style="1" hidden="1"/>
+    <col min="5879" max="5879" width="21.86328125" style="1" hidden="1"/>
+    <col min="5880" max="5882" width="11.3984375" style="1" hidden="1"/>
     <col min="5883" max="5883" width="16" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="20.41796875" style="1" hidden="1"/>
-    <col min="5885" max="6131" width="11.41796875" style="1" hidden="1"/>
-    <col min="6132" max="6132" width="15.41796875" style="1" hidden="1"/>
-    <col min="6133" max="6133" width="11.41796875" style="1" hidden="1"/>
-    <col min="6134" max="6134" width="15.68359375" style="1" hidden="1"/>
-    <col min="6135" max="6135" width="21.83984375" style="1" hidden="1"/>
-    <col min="6136" max="6138" width="11.41796875" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="20.3984375" style="1" hidden="1"/>
+    <col min="5885" max="6131" width="11.3984375" style="1" hidden="1"/>
+    <col min="6132" max="6132" width="15.3984375" style="1" hidden="1"/>
+    <col min="6133" max="6133" width="11.3984375" style="1" hidden="1"/>
+    <col min="6134" max="6134" width="15.73046875" style="1" hidden="1"/>
+    <col min="6135" max="6135" width="21.86328125" style="1" hidden="1"/>
+    <col min="6136" max="6138" width="11.3984375" style="1" hidden="1"/>
     <col min="6139" max="6139" width="16" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="20.41796875" style="1" hidden="1"/>
-    <col min="6141" max="6387" width="11.41796875" style="1" hidden="1"/>
-    <col min="6388" max="6388" width="15.41796875" style="1" hidden="1"/>
-    <col min="6389" max="6389" width="11.41796875" style="1" hidden="1"/>
-    <col min="6390" max="6390" width="15.68359375" style="1" hidden="1"/>
-    <col min="6391" max="6391" width="21.83984375" style="1" hidden="1"/>
-    <col min="6392" max="6394" width="11.41796875" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="20.3984375" style="1" hidden="1"/>
+    <col min="6141" max="6387" width="11.3984375" style="1" hidden="1"/>
+    <col min="6388" max="6388" width="15.3984375" style="1" hidden="1"/>
+    <col min="6389" max="6389" width="11.3984375" style="1" hidden="1"/>
+    <col min="6390" max="6390" width="15.73046875" style="1" hidden="1"/>
+    <col min="6391" max="6391" width="21.86328125" style="1" hidden="1"/>
+    <col min="6392" max="6394" width="11.3984375" style="1" hidden="1"/>
     <col min="6395" max="6395" width="16" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="20.41796875" style="1" hidden="1"/>
-    <col min="6397" max="6643" width="11.41796875" style="1" hidden="1"/>
-    <col min="6644" max="6644" width="15.41796875" style="1" hidden="1"/>
-    <col min="6645" max="6645" width="11.41796875" style="1" hidden="1"/>
-    <col min="6646" max="6646" width="15.68359375" style="1" hidden="1"/>
-    <col min="6647" max="6647" width="21.83984375" style="1" hidden="1"/>
-    <col min="6648" max="6650" width="11.41796875" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="20.3984375" style="1" hidden="1"/>
+    <col min="6397" max="6643" width="11.3984375" style="1" hidden="1"/>
+    <col min="6644" max="6644" width="15.3984375" style="1" hidden="1"/>
+    <col min="6645" max="6645" width="11.3984375" style="1" hidden="1"/>
+    <col min="6646" max="6646" width="15.73046875" style="1" hidden="1"/>
+    <col min="6647" max="6647" width="21.86328125" style="1" hidden="1"/>
+    <col min="6648" max="6650" width="11.3984375" style="1" hidden="1"/>
     <col min="6651" max="6651" width="16" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="20.41796875" style="1" hidden="1"/>
-    <col min="6653" max="6899" width="11.41796875" style="1" hidden="1"/>
-    <col min="6900" max="6900" width="15.41796875" style="1" hidden="1"/>
-    <col min="6901" max="6901" width="11.41796875" style="1" hidden="1"/>
-    <col min="6902" max="6902" width="15.68359375" style="1" hidden="1"/>
-    <col min="6903" max="6903" width="21.83984375" style="1" hidden="1"/>
-    <col min="6904" max="6906" width="11.41796875" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="20.3984375" style="1" hidden="1"/>
+    <col min="6653" max="6899" width="11.3984375" style="1" hidden="1"/>
+    <col min="6900" max="6900" width="15.3984375" style="1" hidden="1"/>
+    <col min="6901" max="6901" width="11.3984375" style="1" hidden="1"/>
+    <col min="6902" max="6902" width="15.73046875" style="1" hidden="1"/>
+    <col min="6903" max="6903" width="21.86328125" style="1" hidden="1"/>
+    <col min="6904" max="6906" width="11.3984375" style="1" hidden="1"/>
     <col min="6907" max="6907" width="16" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="20.41796875" style="1" hidden="1"/>
-    <col min="6909" max="7155" width="11.41796875" style="1" hidden="1"/>
-    <col min="7156" max="7156" width="15.41796875" style="1" hidden="1"/>
-    <col min="7157" max="7157" width="11.41796875" style="1" hidden="1"/>
-    <col min="7158" max="7158" width="15.68359375" style="1" hidden="1"/>
-    <col min="7159" max="7159" width="21.83984375" style="1" hidden="1"/>
-    <col min="7160" max="7162" width="11.41796875" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="20.3984375" style="1" hidden="1"/>
+    <col min="6909" max="7155" width="11.3984375" style="1" hidden="1"/>
+    <col min="7156" max="7156" width="15.3984375" style="1" hidden="1"/>
+    <col min="7157" max="7157" width="11.3984375" style="1" hidden="1"/>
+    <col min="7158" max="7158" width="15.73046875" style="1" hidden="1"/>
+    <col min="7159" max="7159" width="21.86328125" style="1" hidden="1"/>
+    <col min="7160" max="7162" width="11.3984375" style="1" hidden="1"/>
     <col min="7163" max="7163" width="16" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="20.41796875" style="1" hidden="1"/>
-    <col min="7165" max="7411" width="11.41796875" style="1" hidden="1"/>
-    <col min="7412" max="7412" width="15.41796875" style="1" hidden="1"/>
-    <col min="7413" max="7413" width="11.41796875" style="1" hidden="1"/>
-    <col min="7414" max="7414" width="15.68359375" style="1" hidden="1"/>
-    <col min="7415" max="7415" width="21.83984375" style="1" hidden="1"/>
-    <col min="7416" max="7418" width="11.41796875" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="20.3984375" style="1" hidden="1"/>
+    <col min="7165" max="7411" width="11.3984375" style="1" hidden="1"/>
+    <col min="7412" max="7412" width="15.3984375" style="1" hidden="1"/>
+    <col min="7413" max="7413" width="11.3984375" style="1" hidden="1"/>
+    <col min="7414" max="7414" width="15.73046875" style="1" hidden="1"/>
+    <col min="7415" max="7415" width="21.86328125" style="1" hidden="1"/>
+    <col min="7416" max="7418" width="11.3984375" style="1" hidden="1"/>
     <col min="7419" max="7419" width="16" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="20.41796875" style="1" hidden="1"/>
-    <col min="7421" max="7667" width="11.41796875" style="1" hidden="1"/>
-    <col min="7668" max="7668" width="15.41796875" style="1" hidden="1"/>
-    <col min="7669" max="7669" width="11.41796875" style="1" hidden="1"/>
-    <col min="7670" max="7670" width="15.68359375" style="1" hidden="1"/>
-    <col min="7671" max="7671" width="21.83984375" style="1" hidden="1"/>
-    <col min="7672" max="7674" width="11.41796875" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="20.3984375" style="1" hidden="1"/>
+    <col min="7421" max="7667" width="11.3984375" style="1" hidden="1"/>
+    <col min="7668" max="7668" width="15.3984375" style="1" hidden="1"/>
+    <col min="7669" max="7669" width="11.3984375" style="1" hidden="1"/>
+    <col min="7670" max="7670" width="15.73046875" style="1" hidden="1"/>
+    <col min="7671" max="7671" width="21.86328125" style="1" hidden="1"/>
+    <col min="7672" max="7674" width="11.3984375" style="1" hidden="1"/>
     <col min="7675" max="7675" width="16" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="20.41796875" style="1" hidden="1"/>
-    <col min="7677" max="7923" width="11.41796875" style="1" hidden="1"/>
-    <col min="7924" max="7924" width="15.41796875" style="1" hidden="1"/>
-    <col min="7925" max="7925" width="11.41796875" style="1" hidden="1"/>
-    <col min="7926" max="7926" width="15.68359375" style="1" hidden="1"/>
-    <col min="7927" max="7927" width="21.83984375" style="1" hidden="1"/>
-    <col min="7928" max="7930" width="11.41796875" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="20.3984375" style="1" hidden="1"/>
+    <col min="7677" max="7923" width="11.3984375" style="1" hidden="1"/>
+    <col min="7924" max="7924" width="15.3984375" style="1" hidden="1"/>
+    <col min="7925" max="7925" width="11.3984375" style="1" hidden="1"/>
+    <col min="7926" max="7926" width="15.73046875" style="1" hidden="1"/>
+    <col min="7927" max="7927" width="21.86328125" style="1" hidden="1"/>
+    <col min="7928" max="7930" width="11.3984375" style="1" hidden="1"/>
     <col min="7931" max="7931" width="16" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="20.41796875" style="1" hidden="1"/>
-    <col min="7933" max="8179" width="11.41796875" style="1" hidden="1"/>
-    <col min="8180" max="8180" width="15.41796875" style="1" hidden="1"/>
-    <col min="8181" max="8181" width="11.41796875" style="1" hidden="1"/>
-    <col min="8182" max="8182" width="15.68359375" style="1" hidden="1"/>
-    <col min="8183" max="8183" width="21.83984375" style="1" hidden="1"/>
-    <col min="8184" max="8186" width="11.41796875" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="20.3984375" style="1" hidden="1"/>
+    <col min="7933" max="8179" width="11.3984375" style="1" hidden="1"/>
+    <col min="8180" max="8180" width="15.3984375" style="1" hidden="1"/>
+    <col min="8181" max="8181" width="11.3984375" style="1" hidden="1"/>
+    <col min="8182" max="8182" width="15.73046875" style="1" hidden="1"/>
+    <col min="8183" max="8183" width="21.86328125" style="1" hidden="1"/>
+    <col min="8184" max="8186" width="11.3984375" style="1" hidden="1"/>
     <col min="8187" max="8187" width="16" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="20.41796875" style="1" hidden="1"/>
-    <col min="8189" max="8435" width="11.41796875" style="1" hidden="1"/>
-    <col min="8436" max="8436" width="15.41796875" style="1" hidden="1"/>
-    <col min="8437" max="8437" width="11.41796875" style="1" hidden="1"/>
-    <col min="8438" max="8438" width="15.68359375" style="1" hidden="1"/>
-    <col min="8439" max="8439" width="21.83984375" style="1" hidden="1"/>
-    <col min="8440" max="8442" width="11.41796875" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="20.3984375" style="1" hidden="1"/>
+    <col min="8189" max="8435" width="11.3984375" style="1" hidden="1"/>
+    <col min="8436" max="8436" width="15.3984375" style="1" hidden="1"/>
+    <col min="8437" max="8437" width="11.3984375" style="1" hidden="1"/>
+    <col min="8438" max="8438" width="15.73046875" style="1" hidden="1"/>
+    <col min="8439" max="8439" width="21.86328125" style="1" hidden="1"/>
+    <col min="8440" max="8442" width="11.3984375" style="1" hidden="1"/>
     <col min="8443" max="8443" width="16" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="20.41796875" style="1" hidden="1"/>
-    <col min="8445" max="8691" width="11.41796875" style="1" hidden="1"/>
-    <col min="8692" max="8692" width="15.41796875" style="1" hidden="1"/>
-    <col min="8693" max="8693" width="11.41796875" style="1" hidden="1"/>
-    <col min="8694" max="8694" width="15.68359375" style="1" hidden="1"/>
-    <col min="8695" max="8695" width="21.83984375" style="1" hidden="1"/>
-    <col min="8696" max="8698" width="11.41796875" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="20.3984375" style="1" hidden="1"/>
+    <col min="8445" max="8691" width="11.3984375" style="1" hidden="1"/>
+    <col min="8692" max="8692" width="15.3984375" style="1" hidden="1"/>
+    <col min="8693" max="8693" width="11.3984375" style="1" hidden="1"/>
+    <col min="8694" max="8694" width="15.73046875" style="1" hidden="1"/>
+    <col min="8695" max="8695" width="21.86328125" style="1" hidden="1"/>
+    <col min="8696" max="8698" width="11.3984375" style="1" hidden="1"/>
     <col min="8699" max="8699" width="16" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="20.41796875" style="1" hidden="1"/>
-    <col min="8701" max="8947" width="11.41796875" style="1" hidden="1"/>
-    <col min="8948" max="8948" width="15.41796875" style="1" hidden="1"/>
-    <col min="8949" max="8949" width="11.41796875" style="1" hidden="1"/>
-    <col min="8950" max="8950" width="15.68359375" style="1" hidden="1"/>
-    <col min="8951" max="8951" width="21.83984375" style="1" hidden="1"/>
-    <col min="8952" max="8954" width="11.41796875" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="20.3984375" style="1" hidden="1"/>
+    <col min="8701" max="8947" width="11.3984375" style="1" hidden="1"/>
+    <col min="8948" max="8948" width="15.3984375" style="1" hidden="1"/>
+    <col min="8949" max="8949" width="11.3984375" style="1" hidden="1"/>
+    <col min="8950" max="8950" width="15.73046875" style="1" hidden="1"/>
+    <col min="8951" max="8951" width="21.86328125" style="1" hidden="1"/>
+    <col min="8952" max="8954" width="11.3984375" style="1" hidden="1"/>
     <col min="8955" max="8955" width="16" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="20.41796875" style="1" hidden="1"/>
-    <col min="8957" max="9203" width="11.41796875" style="1" hidden="1"/>
-    <col min="9204" max="9204" width="15.41796875" style="1" hidden="1"/>
-    <col min="9205" max="9205" width="11.41796875" style="1" hidden="1"/>
-    <col min="9206" max="9206" width="15.68359375" style="1" hidden="1"/>
-    <col min="9207" max="9207" width="21.83984375" style="1" hidden="1"/>
-    <col min="9208" max="9210" width="11.41796875" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="20.3984375" style="1" hidden="1"/>
+    <col min="8957" max="9203" width="11.3984375" style="1" hidden="1"/>
+    <col min="9204" max="9204" width="15.3984375" style="1" hidden="1"/>
+    <col min="9205" max="9205" width="11.3984375" style="1" hidden="1"/>
+    <col min="9206" max="9206" width="15.73046875" style="1" hidden="1"/>
+    <col min="9207" max="9207" width="21.86328125" style="1" hidden="1"/>
+    <col min="9208" max="9210" width="11.3984375" style="1" hidden="1"/>
     <col min="9211" max="9211" width="16" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="20.41796875" style="1" hidden="1"/>
-    <col min="9213" max="9459" width="11.41796875" style="1" hidden="1"/>
-    <col min="9460" max="9460" width="15.41796875" style="1" hidden="1"/>
-    <col min="9461" max="9461" width="11.41796875" style="1" hidden="1"/>
-    <col min="9462" max="9462" width="15.68359375" style="1" hidden="1"/>
-    <col min="9463" max="9463" width="21.83984375" style="1" hidden="1"/>
-    <col min="9464" max="9466" width="11.41796875" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="20.3984375" style="1" hidden="1"/>
+    <col min="9213" max="9459" width="11.3984375" style="1" hidden="1"/>
+    <col min="9460" max="9460" width="15.3984375" style="1" hidden="1"/>
+    <col min="9461" max="9461" width="11.3984375" style="1" hidden="1"/>
+    <col min="9462" max="9462" width="15.73046875" style="1" hidden="1"/>
+    <col min="9463" max="9463" width="21.86328125" style="1" hidden="1"/>
+    <col min="9464" max="9466" width="11.3984375" style="1" hidden="1"/>
     <col min="9467" max="9467" width="16" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="20.41796875" style="1" hidden="1"/>
-    <col min="9469" max="9715" width="11.41796875" style="1" hidden="1"/>
-    <col min="9716" max="9716" width="15.41796875" style="1" hidden="1"/>
-    <col min="9717" max="9717" width="11.41796875" style="1" hidden="1"/>
-    <col min="9718" max="9718" width="15.68359375" style="1" hidden="1"/>
-    <col min="9719" max="9719" width="21.83984375" style="1" hidden="1"/>
-    <col min="9720" max="9722" width="11.41796875" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="20.3984375" style="1" hidden="1"/>
+    <col min="9469" max="9715" width="11.3984375" style="1" hidden="1"/>
+    <col min="9716" max="9716" width="15.3984375" style="1" hidden="1"/>
+    <col min="9717" max="9717" width="11.3984375" style="1" hidden="1"/>
+    <col min="9718" max="9718" width="15.73046875" style="1" hidden="1"/>
+    <col min="9719" max="9719" width="21.86328125" style="1" hidden="1"/>
+    <col min="9720" max="9722" width="11.3984375" style="1" hidden="1"/>
     <col min="9723" max="9723" width="16" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="20.41796875" style="1" hidden="1"/>
-    <col min="9725" max="9971" width="11.41796875" style="1" hidden="1"/>
-    <col min="9972" max="9972" width="15.41796875" style="1" hidden="1"/>
-    <col min="9973" max="9973" width="11.41796875" style="1" hidden="1"/>
-    <col min="9974" max="9974" width="15.68359375" style="1" hidden="1"/>
-    <col min="9975" max="9975" width="21.83984375" style="1" hidden="1"/>
-    <col min="9976" max="9978" width="11.41796875" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="20.3984375" style="1" hidden="1"/>
+    <col min="9725" max="9971" width="11.3984375" style="1" hidden="1"/>
+    <col min="9972" max="9972" width="15.3984375" style="1" hidden="1"/>
+    <col min="9973" max="9973" width="11.3984375" style="1" hidden="1"/>
+    <col min="9974" max="9974" width="15.73046875" style="1" hidden="1"/>
+    <col min="9975" max="9975" width="21.86328125" style="1" hidden="1"/>
+    <col min="9976" max="9978" width="11.3984375" style="1" hidden="1"/>
     <col min="9979" max="9979" width="16" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="20.41796875" style="1" hidden="1"/>
-    <col min="9981" max="10227" width="11.41796875" style="1" hidden="1"/>
-    <col min="10228" max="10228" width="15.41796875" style="1" hidden="1"/>
-    <col min="10229" max="10229" width="11.41796875" style="1" hidden="1"/>
-    <col min="10230" max="10230" width="15.68359375" style="1" hidden="1"/>
-    <col min="10231" max="10231" width="21.83984375" style="1" hidden="1"/>
-    <col min="10232" max="10234" width="11.41796875" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="20.3984375" style="1" hidden="1"/>
+    <col min="9981" max="10227" width="11.3984375" style="1" hidden="1"/>
+    <col min="10228" max="10228" width="15.3984375" style="1" hidden="1"/>
+    <col min="10229" max="10229" width="11.3984375" style="1" hidden="1"/>
+    <col min="10230" max="10230" width="15.73046875" style="1" hidden="1"/>
+    <col min="10231" max="10231" width="21.86328125" style="1" hidden="1"/>
+    <col min="10232" max="10234" width="11.3984375" style="1" hidden="1"/>
     <col min="10235" max="10235" width="16" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="20.41796875" style="1" hidden="1"/>
-    <col min="10237" max="10483" width="11.41796875" style="1" hidden="1"/>
-    <col min="10484" max="10484" width="15.41796875" style="1" hidden="1"/>
-    <col min="10485" max="10485" width="11.41796875" style="1" hidden="1"/>
-    <col min="10486" max="10486" width="15.68359375" style="1" hidden="1"/>
-    <col min="10487" max="10487" width="21.83984375" style="1" hidden="1"/>
-    <col min="10488" max="10490" width="11.41796875" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="20.3984375" style="1" hidden="1"/>
+    <col min="10237" max="10483" width="11.3984375" style="1" hidden="1"/>
+    <col min="10484" max="10484" width="15.3984375" style="1" hidden="1"/>
+    <col min="10485" max="10485" width="11.3984375" style="1" hidden="1"/>
+    <col min="10486" max="10486" width="15.73046875" style="1" hidden="1"/>
+    <col min="10487" max="10487" width="21.86328125" style="1" hidden="1"/>
+    <col min="10488" max="10490" width="11.3984375" style="1" hidden="1"/>
     <col min="10491" max="10491" width="16" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="20.41796875" style="1" hidden="1"/>
-    <col min="10493" max="10739" width="11.41796875" style="1" hidden="1"/>
-    <col min="10740" max="10740" width="15.41796875" style="1" hidden="1"/>
-    <col min="10741" max="10741" width="11.41796875" style="1" hidden="1"/>
-    <col min="10742" max="10742" width="15.68359375" style="1" hidden="1"/>
-    <col min="10743" max="10743" width="21.83984375" style="1" hidden="1"/>
-    <col min="10744" max="10746" width="11.41796875" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="20.3984375" style="1" hidden="1"/>
+    <col min="10493" max="10739" width="11.3984375" style="1" hidden="1"/>
+    <col min="10740" max="10740" width="15.3984375" style="1" hidden="1"/>
+    <col min="10741" max="10741" width="11.3984375" style="1" hidden="1"/>
+    <col min="10742" max="10742" width="15.73046875" style="1" hidden="1"/>
+    <col min="10743" max="10743" width="21.86328125" style="1" hidden="1"/>
+    <col min="10744" max="10746" width="11.3984375" style="1" hidden="1"/>
     <col min="10747" max="10747" width="16" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="20.41796875" style="1" hidden="1"/>
-    <col min="10749" max="10995" width="11.41796875" style="1" hidden="1"/>
-    <col min="10996" max="10996" width="15.41796875" style="1" hidden="1"/>
-    <col min="10997" max="10997" width="11.41796875" style="1" hidden="1"/>
-    <col min="10998" max="10998" width="15.68359375" style="1" hidden="1"/>
-    <col min="10999" max="10999" width="21.83984375" style="1" hidden="1"/>
-    <col min="11000" max="11002" width="11.41796875" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="20.3984375" style="1" hidden="1"/>
+    <col min="10749" max="10995" width="11.3984375" style="1" hidden="1"/>
+    <col min="10996" max="10996" width="15.3984375" style="1" hidden="1"/>
+    <col min="10997" max="10997" width="11.3984375" style="1" hidden="1"/>
+    <col min="10998" max="10998" width="15.73046875" style="1" hidden="1"/>
+    <col min="10999" max="10999" width="21.86328125" style="1" hidden="1"/>
+    <col min="11000" max="11002" width="11.3984375" style="1" hidden="1"/>
     <col min="11003" max="11003" width="16" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="20.41796875" style="1" hidden="1"/>
-    <col min="11005" max="11251" width="11.41796875" style="1" hidden="1"/>
-    <col min="11252" max="11252" width="15.41796875" style="1" hidden="1"/>
-    <col min="11253" max="11253" width="11.41796875" style="1" hidden="1"/>
-    <col min="11254" max="11254" width="15.68359375" style="1" hidden="1"/>
-    <col min="11255" max="11255" width="21.83984375" style="1" hidden="1"/>
-    <col min="11256" max="11258" width="11.41796875" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="20.3984375" style="1" hidden="1"/>
+    <col min="11005" max="11251" width="11.3984375" style="1" hidden="1"/>
+    <col min="11252" max="11252" width="15.3984375" style="1" hidden="1"/>
+    <col min="11253" max="11253" width="11.3984375" style="1" hidden="1"/>
+    <col min="11254" max="11254" width="15.73046875" style="1" hidden="1"/>
+    <col min="11255" max="11255" width="21.86328125" style="1" hidden="1"/>
+    <col min="11256" max="11258" width="11.3984375" style="1" hidden="1"/>
     <col min="11259" max="11259" width="16" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="20.41796875" style="1" hidden="1"/>
-    <col min="11261" max="11507" width="11.41796875" style="1" hidden="1"/>
-    <col min="11508" max="11508" width="15.41796875" style="1" hidden="1"/>
-    <col min="11509" max="11509" width="11.41796875" style="1" hidden="1"/>
-    <col min="11510" max="11510" width="15.68359375" style="1" hidden="1"/>
-    <col min="11511" max="11511" width="21.83984375" style="1" hidden="1"/>
-    <col min="11512" max="11514" width="11.41796875" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="20.3984375" style="1" hidden="1"/>
+    <col min="11261" max="11507" width="11.3984375" style="1" hidden="1"/>
+    <col min="11508" max="11508" width="15.3984375" style="1" hidden="1"/>
+    <col min="11509" max="11509" width="11.3984375" style="1" hidden="1"/>
+    <col min="11510" max="11510" width="15.73046875" style="1" hidden="1"/>
+    <col min="11511" max="11511" width="21.86328125" style="1" hidden="1"/>
+    <col min="11512" max="11514" width="11.3984375" style="1" hidden="1"/>
     <col min="11515" max="11515" width="16" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="20.41796875" style="1" hidden="1"/>
-    <col min="11517" max="11763" width="11.41796875" style="1" hidden="1"/>
-    <col min="11764" max="11764" width="15.41796875" style="1" hidden="1"/>
-    <col min="11765" max="11765" width="11.41796875" style="1" hidden="1"/>
-    <col min="11766" max="11766" width="15.68359375" style="1" hidden="1"/>
-    <col min="11767" max="11767" width="21.83984375" style="1" hidden="1"/>
-    <col min="11768" max="11770" width="11.41796875" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="20.3984375" style="1" hidden="1"/>
+    <col min="11517" max="11763" width="11.3984375" style="1" hidden="1"/>
+    <col min="11764" max="11764" width="15.3984375" style="1" hidden="1"/>
+    <col min="11765" max="11765" width="11.3984375" style="1" hidden="1"/>
+    <col min="11766" max="11766" width="15.73046875" style="1" hidden="1"/>
+    <col min="11767" max="11767" width="21.86328125" style="1" hidden="1"/>
+    <col min="11768" max="11770" width="11.3984375" style="1" hidden="1"/>
     <col min="11771" max="11771" width="16" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="20.41796875" style="1" hidden="1"/>
-    <col min="11773" max="12019" width="11.41796875" style="1" hidden="1"/>
-    <col min="12020" max="12020" width="15.41796875" style="1" hidden="1"/>
-    <col min="12021" max="12021" width="11.41796875" style="1" hidden="1"/>
-    <col min="12022" max="12022" width="15.68359375" style="1" hidden="1"/>
-    <col min="12023" max="12023" width="21.83984375" style="1" hidden="1"/>
-    <col min="12024" max="12026" width="11.41796875" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="20.3984375" style="1" hidden="1"/>
+    <col min="11773" max="12019" width="11.3984375" style="1" hidden="1"/>
+    <col min="12020" max="12020" width="15.3984375" style="1" hidden="1"/>
+    <col min="12021" max="12021" width="11.3984375" style="1" hidden="1"/>
+    <col min="12022" max="12022" width="15.73046875" style="1" hidden="1"/>
+    <col min="12023" max="12023" width="21.86328125" style="1" hidden="1"/>
+    <col min="12024" max="12026" width="11.3984375" style="1" hidden="1"/>
     <col min="12027" max="12027" width="16" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="20.41796875" style="1" hidden="1"/>
-    <col min="12029" max="12275" width="11.41796875" style="1" hidden="1"/>
-    <col min="12276" max="12276" width="15.41796875" style="1" hidden="1"/>
-    <col min="12277" max="12277" width="11.41796875" style="1" hidden="1"/>
-    <col min="12278" max="12278" width="15.68359375" style="1" hidden="1"/>
-    <col min="12279" max="12279" width="21.83984375" style="1" hidden="1"/>
-    <col min="12280" max="12282" width="11.41796875" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="20.3984375" style="1" hidden="1"/>
+    <col min="12029" max="12275" width="11.3984375" style="1" hidden="1"/>
+    <col min="12276" max="12276" width="15.3984375" style="1" hidden="1"/>
+    <col min="12277" max="12277" width="11.3984375" style="1" hidden="1"/>
+    <col min="12278" max="12278" width="15.73046875" style="1" hidden="1"/>
+    <col min="12279" max="12279" width="21.86328125" style="1" hidden="1"/>
+    <col min="12280" max="12282" width="11.3984375" style="1" hidden="1"/>
     <col min="12283" max="12283" width="16" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="20.41796875" style="1" hidden="1"/>
-    <col min="12285" max="12531" width="11.41796875" style="1" hidden="1"/>
-    <col min="12532" max="12532" width="15.41796875" style="1" hidden="1"/>
-    <col min="12533" max="12533" width="11.41796875" style="1" hidden="1"/>
-    <col min="12534" max="12534" width="15.68359375" style="1" hidden="1"/>
-    <col min="12535" max="12535" width="21.83984375" style="1" hidden="1"/>
-    <col min="12536" max="12538" width="11.41796875" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="20.3984375" style="1" hidden="1"/>
+    <col min="12285" max="12531" width="11.3984375" style="1" hidden="1"/>
+    <col min="12532" max="12532" width="15.3984375" style="1" hidden="1"/>
+    <col min="12533" max="12533" width="11.3984375" style="1" hidden="1"/>
+    <col min="12534" max="12534" width="15.73046875" style="1" hidden="1"/>
+    <col min="12535" max="12535" width="21.86328125" style="1" hidden="1"/>
+    <col min="12536" max="12538" width="11.3984375" style="1" hidden="1"/>
     <col min="12539" max="12539" width="16" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="20.41796875" style="1" hidden="1"/>
-    <col min="12541" max="12787" width="11.41796875" style="1" hidden="1"/>
-    <col min="12788" max="12788" width="15.41796875" style="1" hidden="1"/>
-    <col min="12789" max="12789" width="11.41796875" style="1" hidden="1"/>
-    <col min="12790" max="12790" width="15.68359375" style="1" hidden="1"/>
-    <col min="12791" max="12791" width="21.83984375" style="1" hidden="1"/>
-    <col min="12792" max="12794" width="11.41796875" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="20.3984375" style="1" hidden="1"/>
+    <col min="12541" max="12787" width="11.3984375" style="1" hidden="1"/>
+    <col min="12788" max="12788" width="15.3984375" style="1" hidden="1"/>
+    <col min="12789" max="12789" width="11.3984375" style="1" hidden="1"/>
+    <col min="12790" max="12790" width="15.73046875" style="1" hidden="1"/>
+    <col min="12791" max="12791" width="21.86328125" style="1" hidden="1"/>
+    <col min="12792" max="12794" width="11.3984375" style="1" hidden="1"/>
     <col min="12795" max="12795" width="16" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="20.41796875" style="1" hidden="1"/>
-    <col min="12797" max="13043" width="11.41796875" style="1" hidden="1"/>
-    <col min="13044" max="13044" width="15.41796875" style="1" hidden="1"/>
-    <col min="13045" max="13045" width="11.41796875" style="1" hidden="1"/>
-    <col min="13046" max="13046" width="15.68359375" style="1" hidden="1"/>
-    <col min="13047" max="13047" width="21.83984375" style="1" hidden="1"/>
-    <col min="13048" max="13050" width="11.41796875" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="20.3984375" style="1" hidden="1"/>
+    <col min="12797" max="13043" width="11.3984375" style="1" hidden="1"/>
+    <col min="13044" max="13044" width="15.3984375" style="1" hidden="1"/>
+    <col min="13045" max="13045" width="11.3984375" style="1" hidden="1"/>
+    <col min="13046" max="13046" width="15.73046875" style="1" hidden="1"/>
+    <col min="13047" max="13047" width="21.86328125" style="1" hidden="1"/>
+    <col min="13048" max="13050" width="11.3984375" style="1" hidden="1"/>
     <col min="13051" max="13051" width="16" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="20.41796875" style="1" hidden="1"/>
-    <col min="13053" max="13299" width="11.41796875" style="1" hidden="1"/>
-    <col min="13300" max="13300" width="15.41796875" style="1" hidden="1"/>
-    <col min="13301" max="13301" width="11.41796875" style="1" hidden="1"/>
-    <col min="13302" max="13302" width="15.68359375" style="1" hidden="1"/>
-    <col min="13303" max="13303" width="21.83984375" style="1" hidden="1"/>
-    <col min="13304" max="13306" width="11.41796875" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="20.3984375" style="1" hidden="1"/>
+    <col min="13053" max="13299" width="11.3984375" style="1" hidden="1"/>
+    <col min="13300" max="13300" width="15.3984375" style="1" hidden="1"/>
+    <col min="13301" max="13301" width="11.3984375" style="1" hidden="1"/>
+    <col min="13302" max="13302" width="15.73046875" style="1" hidden="1"/>
+    <col min="13303" max="13303" width="21.86328125" style="1" hidden="1"/>
+    <col min="13304" max="13306" width="11.3984375" style="1" hidden="1"/>
     <col min="13307" max="13307" width="16" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="20.41796875" style="1" hidden="1"/>
-    <col min="13309" max="13555" width="11.41796875" style="1" hidden="1"/>
-    <col min="13556" max="13556" width="15.41796875" style="1" hidden="1"/>
-    <col min="13557" max="13557" width="11.41796875" style="1" hidden="1"/>
-    <col min="13558" max="13558" width="15.68359375" style="1" hidden="1"/>
-    <col min="13559" max="13559" width="21.83984375" style="1" hidden="1"/>
-    <col min="13560" max="13562" width="11.41796875" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="20.3984375" style="1" hidden="1"/>
+    <col min="13309" max="13555" width="11.3984375" style="1" hidden="1"/>
+    <col min="13556" max="13556" width="15.3984375" style="1" hidden="1"/>
+    <col min="13557" max="13557" width="11.3984375" style="1" hidden="1"/>
+    <col min="13558" max="13558" width="15.73046875" style="1" hidden="1"/>
+    <col min="13559" max="13559" width="21.86328125" style="1" hidden="1"/>
+    <col min="13560" max="13562" width="11.3984375" style="1" hidden="1"/>
     <col min="13563" max="13563" width="16" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="20.41796875" style="1" hidden="1"/>
-    <col min="13565" max="13811" width="11.41796875" style="1" hidden="1"/>
-    <col min="13812" max="13812" width="15.41796875" style="1" hidden="1"/>
-    <col min="13813" max="13813" width="11.41796875" style="1" hidden="1"/>
-    <col min="13814" max="13814" width="15.68359375" style="1" hidden="1"/>
-    <col min="13815" max="13815" width="21.83984375" style="1" hidden="1"/>
-    <col min="13816" max="13818" width="11.41796875" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="20.3984375" style="1" hidden="1"/>
+    <col min="13565" max="13811" width="11.3984375" style="1" hidden="1"/>
+    <col min="13812" max="13812" width="15.3984375" style="1" hidden="1"/>
+    <col min="13813" max="13813" width="11.3984375" style="1" hidden="1"/>
+    <col min="13814" max="13814" width="15.73046875" style="1" hidden="1"/>
+    <col min="13815" max="13815" width="21.86328125" style="1" hidden="1"/>
+    <col min="13816" max="13818" width="11.3984375" style="1" hidden="1"/>
     <col min="13819" max="13819" width="16" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="20.41796875" style="1" hidden="1"/>
-    <col min="13821" max="14067" width="11.41796875" style="1" hidden="1"/>
-    <col min="14068" max="14068" width="15.41796875" style="1" hidden="1"/>
-    <col min="14069" max="14069" width="11.41796875" style="1" hidden="1"/>
-    <col min="14070" max="14070" width="15.68359375" style="1" hidden="1"/>
-    <col min="14071" max="14071" width="21.83984375" style="1" hidden="1"/>
-    <col min="14072" max="14074" width="11.41796875" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="20.3984375" style="1" hidden="1"/>
+    <col min="13821" max="14067" width="11.3984375" style="1" hidden="1"/>
+    <col min="14068" max="14068" width="15.3984375" style="1" hidden="1"/>
+    <col min="14069" max="14069" width="11.3984375" style="1" hidden="1"/>
+    <col min="14070" max="14070" width="15.73046875" style="1" hidden="1"/>
+    <col min="14071" max="14071" width="21.86328125" style="1" hidden="1"/>
+    <col min="14072" max="14074" width="11.3984375" style="1" hidden="1"/>
     <col min="14075" max="14075" width="16" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="20.41796875" style="1" hidden="1"/>
-    <col min="14077" max="14323" width="11.41796875" style="1" hidden="1"/>
-    <col min="14324" max="14324" width="15.41796875" style="1" hidden="1"/>
-    <col min="14325" max="14325" width="11.41796875" style="1" hidden="1"/>
-    <col min="14326" max="14326" width="15.68359375" style="1" hidden="1"/>
-    <col min="14327" max="14327" width="21.83984375" style="1" hidden="1"/>
-    <col min="14328" max="14330" width="11.41796875" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="20.3984375" style="1" hidden="1"/>
+    <col min="14077" max="14323" width="11.3984375" style="1" hidden="1"/>
+    <col min="14324" max="14324" width="15.3984375" style="1" hidden="1"/>
+    <col min="14325" max="14325" width="11.3984375" style="1" hidden="1"/>
+    <col min="14326" max="14326" width="15.73046875" style="1" hidden="1"/>
+    <col min="14327" max="14327" width="21.86328125" style="1" hidden="1"/>
+    <col min="14328" max="14330" width="11.3984375" style="1" hidden="1"/>
     <col min="14331" max="14331" width="16" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="20.41796875" style="1" hidden="1"/>
-    <col min="14333" max="14579" width="11.41796875" style="1" hidden="1"/>
-    <col min="14580" max="14580" width="15.41796875" style="1" hidden="1"/>
-    <col min="14581" max="14581" width="11.41796875" style="1" hidden="1"/>
-    <col min="14582" max="14582" width="15.68359375" style="1" hidden="1"/>
-    <col min="14583" max="14583" width="21.83984375" style="1" hidden="1"/>
-    <col min="14584" max="14586" width="11.41796875" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="20.3984375" style="1" hidden="1"/>
+    <col min="14333" max="14579" width="11.3984375" style="1" hidden="1"/>
+    <col min="14580" max="14580" width="15.3984375" style="1" hidden="1"/>
+    <col min="14581" max="14581" width="11.3984375" style="1" hidden="1"/>
+    <col min="14582" max="14582" width="15.73046875" style="1" hidden="1"/>
+    <col min="14583" max="14583" width="21.86328125" style="1" hidden="1"/>
+    <col min="14584" max="14586" width="11.3984375" style="1" hidden="1"/>
     <col min="14587" max="14587" width="16" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="20.41796875" style="1" hidden="1"/>
-    <col min="14589" max="14835" width="11.41796875" style="1" hidden="1"/>
-    <col min="14836" max="14836" width="15.41796875" style="1" hidden="1"/>
-    <col min="14837" max="14837" width="11.41796875" style="1" hidden="1"/>
-    <col min="14838" max="14838" width="15.68359375" style="1" hidden="1"/>
-    <col min="14839" max="14839" width="21.83984375" style="1" hidden="1"/>
-    <col min="14840" max="14842" width="11.41796875" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="20.3984375" style="1" hidden="1"/>
+    <col min="14589" max="14835" width="11.3984375" style="1" hidden="1"/>
+    <col min="14836" max="14836" width="15.3984375" style="1" hidden="1"/>
+    <col min="14837" max="14837" width="11.3984375" style="1" hidden="1"/>
+    <col min="14838" max="14838" width="15.73046875" style="1" hidden="1"/>
+    <col min="14839" max="14839" width="21.86328125" style="1" hidden="1"/>
+    <col min="14840" max="14842" width="11.3984375" style="1" hidden="1"/>
     <col min="14843" max="14843" width="16" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="20.41796875" style="1" hidden="1"/>
-    <col min="14845" max="15091" width="11.41796875" style="1" hidden="1"/>
-    <col min="15092" max="15092" width="15.41796875" style="1" hidden="1"/>
-    <col min="15093" max="15093" width="11.41796875" style="1" hidden="1"/>
-    <col min="15094" max="15094" width="15.68359375" style="1" hidden="1"/>
-    <col min="15095" max="15095" width="21.83984375" style="1" hidden="1"/>
-    <col min="15096" max="15098" width="11.41796875" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="20.3984375" style="1" hidden="1"/>
+    <col min="14845" max="15091" width="11.3984375" style="1" hidden="1"/>
+    <col min="15092" max="15092" width="15.3984375" style="1" hidden="1"/>
+    <col min="15093" max="15093" width="11.3984375" style="1" hidden="1"/>
+    <col min="15094" max="15094" width="15.73046875" style="1" hidden="1"/>
+    <col min="15095" max="15095" width="21.86328125" style="1" hidden="1"/>
+    <col min="15096" max="15098" width="11.3984375" style="1" hidden="1"/>
     <col min="15099" max="15099" width="16" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="20.41796875" style="1" hidden="1"/>
-    <col min="15101" max="15347" width="11.41796875" style="1" hidden="1"/>
-    <col min="15348" max="15348" width="15.41796875" style="1" hidden="1"/>
-    <col min="15349" max="15349" width="11.41796875" style="1" hidden="1"/>
-    <col min="15350" max="15350" width="15.68359375" style="1" hidden="1"/>
-    <col min="15351" max="15351" width="21.83984375" style="1" hidden="1"/>
-    <col min="15352" max="15354" width="11.41796875" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="20.3984375" style="1" hidden="1"/>
+    <col min="15101" max="15347" width="11.3984375" style="1" hidden="1"/>
+    <col min="15348" max="15348" width="15.3984375" style="1" hidden="1"/>
+    <col min="15349" max="15349" width="11.3984375" style="1" hidden="1"/>
+    <col min="15350" max="15350" width="15.73046875" style="1" hidden="1"/>
+    <col min="15351" max="15351" width="21.86328125" style="1" hidden="1"/>
+    <col min="15352" max="15354" width="11.3984375" style="1" hidden="1"/>
     <col min="15355" max="15355" width="16" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="20.41796875" style="1" hidden="1"/>
-    <col min="15357" max="15603" width="11.41796875" style="1" hidden="1"/>
-    <col min="15604" max="15604" width="15.41796875" style="1" hidden="1"/>
-    <col min="15605" max="15605" width="11.41796875" style="1" hidden="1"/>
-    <col min="15606" max="15606" width="15.68359375" style="1" hidden="1"/>
-    <col min="15607" max="15607" width="21.83984375" style="1" hidden="1"/>
-    <col min="15608" max="15610" width="11.41796875" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="20.3984375" style="1" hidden="1"/>
+    <col min="15357" max="15603" width="11.3984375" style="1" hidden="1"/>
+    <col min="15604" max="15604" width="15.3984375" style="1" hidden="1"/>
+    <col min="15605" max="15605" width="11.3984375" style="1" hidden="1"/>
+    <col min="15606" max="15606" width="15.73046875" style="1" hidden="1"/>
+    <col min="15607" max="15607" width="21.86328125" style="1" hidden="1"/>
+    <col min="15608" max="15610" width="11.3984375" style="1" hidden="1"/>
     <col min="15611" max="15611" width="16" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="20.41796875" style="1" hidden="1"/>
-    <col min="15613" max="15859" width="11.41796875" style="1" hidden="1"/>
-    <col min="15860" max="15860" width="15.41796875" style="1" hidden="1"/>
-    <col min="15861" max="15861" width="11.41796875" style="1" hidden="1"/>
-    <col min="15862" max="15862" width="15.68359375" style="1" hidden="1"/>
-    <col min="15863" max="15863" width="21.83984375" style="1" hidden="1"/>
-    <col min="15864" max="15866" width="11.41796875" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="20.3984375" style="1" hidden="1"/>
+    <col min="15613" max="15859" width="11.3984375" style="1" hidden="1"/>
+    <col min="15860" max="15860" width="15.3984375" style="1" hidden="1"/>
+    <col min="15861" max="15861" width="11.3984375" style="1" hidden="1"/>
+    <col min="15862" max="15862" width="15.73046875" style="1" hidden="1"/>
+    <col min="15863" max="15863" width="21.86328125" style="1" hidden="1"/>
+    <col min="15864" max="15866" width="11.3984375" style="1" hidden="1"/>
     <col min="15867" max="15867" width="16" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="20.41796875" style="1" hidden="1"/>
-    <col min="15869" max="16115" width="11.41796875" style="1" hidden="1"/>
-    <col min="16116" max="16116" width="15.41796875" style="1" hidden="1"/>
-    <col min="16117" max="16117" width="11.41796875" style="1" hidden="1"/>
-    <col min="16118" max="16118" width="15.68359375" style="1" hidden="1"/>
-    <col min="16119" max="16119" width="21.83984375" style="1" hidden="1"/>
-    <col min="16120" max="16122" width="11.41796875" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="20.3984375" style="1" hidden="1"/>
+    <col min="15869" max="16115" width="11.3984375" style="1" hidden="1"/>
+    <col min="16116" max="16116" width="15.3984375" style="1" hidden="1"/>
+    <col min="16117" max="16117" width="11.3984375" style="1" hidden="1"/>
+    <col min="16118" max="16118" width="15.73046875" style="1" hidden="1"/>
+    <col min="16119" max="16119" width="21.86328125" style="1" hidden="1"/>
+    <col min="16120" max="16122" width="11.3984375" style="1" hidden="1"/>
     <col min="16123" max="16123" width="16" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="20.41796875" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.41796875" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="15.41796875" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.41796875" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="15.68359375" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="21.83984375" style="1" hidden="1"/>
-    <col min="16132" max="16134" width="11.41796875" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="20.3984375" style="1" hidden="1"/>
+    <col min="16125" max="16127" width="11.3984375" style="1" hidden="1"/>
+    <col min="16128" max="16128" width="15.3984375" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="11.3984375" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="15.73046875" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="21.86328125" style="1" hidden="1"/>
+    <col min="16132" max="16134" width="11.3984375" style="1" hidden="1"/>
     <col min="16135" max="16135" width="16" style="1" hidden="1"/>
-    <col min="16136" max="16137" width="20.41796875" style="1" hidden="1"/>
-    <col min="16138" max="16139" width="11.41796875" style="1" hidden="1"/>
+    <col min="16136" max="16137" width="20.3984375" style="1" hidden="1"/>
+    <col min="16138" max="16139" width="11.3984375" style="1" hidden="1"/>
     <col min="16140" max="16140" width="16" style="1" hidden="1"/>
-    <col min="16141" max="16143" width="20.41796875" style="1" hidden="1"/>
-    <col min="16144" max="16384" width="11.41796875" style="1" hidden="1"/>
+    <col min="16141" max="16143" width="20.3984375" style="1" hidden="1"/>
+    <col min="16144" max="16384" width="11.3984375" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2366,7 @@
       <c r="H1" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="46" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="36" t="s">
@@ -2373,7 +2390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="32" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2425,7 +2442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="32">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -2477,7 +2494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="32">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -2529,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="32">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -2581,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="32">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -2633,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="32">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -2685,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="32">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -2737,7 +2754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="32">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -2789,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="32">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -2841,7 +2858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="32">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -2893,7 +2910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="32">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -2945,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="32">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -2997,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="32">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3049,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="32">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3101,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="32">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3153,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="32">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3205,7 +3222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="32">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -3257,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="32">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -3309,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="32">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -3361,7 +3378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="32">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -3413,7 +3430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="32">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -3465,7 +3482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="32">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -3517,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="32">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -3569,7 +3586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="32">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -3621,7 +3638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="32">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -3673,7 +3690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -3690,7 +3707,7 @@
       <c r="L27" s="25"/>
       <c r="Q27" s="13"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
         <v>25</v>
       </c>
@@ -3706,7 +3723,7 @@
       <c r="L28" s="25"/>
       <c r="Q28" s="13"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -3726,7 +3743,7 @@
       <c r="L29" s="25"/>
       <c r="Q29" s="13"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
@@ -3740,43 +3757,43 @@
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="26"/>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
       <c r="H31" s="35"/>
       <c r="I31" s="28"/>
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
       <c r="L31" s="25"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C32" s="26"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
       <c r="H32" s="35"/>
       <c r="I32" s="28"/>
       <c r="J32" s="35"/>
       <c r="K32" s="35"/>
       <c r="L32" s="25"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -3784,227 +3801,223 @@
         <v>2</v>
       </c>
       <c r="C33" s="26"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
+      <c r="D33" s="75"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
       <c r="H33" s="35"/>
       <c r="I33" s="28"/>
       <c r="J33" s="35"/>
       <c r="K33" s="35"/>
       <c r="L33" s="25"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C34" s="26"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
+      <c r="D34" s="75"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
       <c r="H34" s="35"/>
       <c r="I34" s="28"/>
       <c r="J34" s="35"/>
       <c r="K34" s="35"/>
       <c r="L34" s="25"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
+      <c r="D35" s="75"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
       <c r="H35" s="35"/>
       <c r="I35" s="28"/>
       <c r="J35" s="35"/>
       <c r="K35" s="35"/>
       <c r="L35" s="25"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C36" s="26"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
       <c r="H36" s="35"/>
       <c r="I36" s="28"/>
       <c r="J36" s="35"/>
       <c r="K36" s="35"/>
       <c r="L36" s="25"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="69">
-        <v>43861</v>
+        <v>62</v>
+      </c>
+      <c r="B37" s="68">
+        <v>44408</v>
       </c>
       <c r="C37" s="26"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
       <c r="H37" s="25"/>
       <c r="I37" s="28"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.4"/>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="62" t="s">
-        <v>64</v>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="61" t="s">
+        <v>54</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="62" t="s">
-        <v>65</v>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="61" t="s">
+        <v>55</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="3" t="s">
+      <c r="D47" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="61" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D50" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
       <c r="D51" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="62"/>
-    </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="62"/>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="62"/>
-    </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="62"/>
-    </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="62"/>
-    </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="62"/>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="62"/>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="62"/>
-    </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="61"/>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="61"/>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="61"/>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="61"/>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="61"/>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="61"/>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="61"/>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="61"/>
+    </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
+  <sheetProtection formatColumns="0" selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="D31:G37"/>
@@ -4036,7 +4049,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H13"/>
@@ -4045,29 +4058,29 @@
       <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" customWidth="1"/>
-    <col min="2" max="2" width="11.41796875" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.41796875" customWidth="1"/>
-    <col min="9" max="16384" width="11.41796875" hidden="1"/>
+    <col min="1" max="1" width="11.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.3984375" customWidth="1"/>
+    <col min="9" max="16384" width="11.3984375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="78" t="str">
-        <f>Spanisch!B34</f>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="76" t="str">
+        <f>Notenliste!B34</f>
         <v>Spanisch Auslandsvorbereitungskurs</v>
       </c>
-      <c r="B1" s="78"/>
+      <c r="B1" s="76"/>
       <c r="C1" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="14" t="e">
-        <f>Spanisch!F28</f>
+        <f>Notenliste!F28</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -4075,102 +4088,102 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
       <c r="B4" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
       <c r="B5" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>2</v>
       </c>
       <c r="B6" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
       <c r="B7" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
       <c r="B8" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>3</v>
       </c>
       <c r="B9" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
       <c r="B10" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
       <c r="B11" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>4</v>
       </c>
       <c r="B12" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="7">
-        <f>COUNTIF(Spanisch!$F$2:$F$26,A13)</f>
+        <f>COUNTIF(Notenliste!$F$2:$F$26,A13)</f>
         <v>0</v>
       </c>
     </row>
@@ -4191,7 +4204,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:O34"/>
@@ -4200,62 +4213,62 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.68359375" style="21" customWidth="1"/>
-    <col min="4" max="5" width="10.68359375" style="23" customWidth="1"/>
-    <col min="6" max="7" width="30.68359375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="10.68359375" style="21" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.15625" style="21" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.68359375" style="22" customWidth="1"/>
-    <col min="14" max="14" width="5.68359375" style="21" customWidth="1"/>
-    <col min="15" max="15" width="1.68359375" style="21" customWidth="1"/>
-    <col min="16" max="16384" width="11.41796875" style="21" hidden="1"/>
+    <col min="1" max="1" width="3.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.73046875" style="21" customWidth="1"/>
+    <col min="4" max="5" width="10.73046875" style="23" customWidth="1"/>
+    <col min="6" max="7" width="30.73046875" style="21" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" style="21" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1328125" style="21" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.73046875" style="22" customWidth="1"/>
+    <col min="14" max="14" width="5.73046875" style="21" customWidth="1"/>
+    <col min="15" max="15" width="1.73046875" style="21" customWidth="1"/>
+    <col min="16" max="16384" width="11.3984375" style="21" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="67" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="79" t="str">
-        <f>Spanisch!B34&amp;Spanisch!B35</f>
+    <row r="1" spans="1:14" s="66" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="77" t="str">
+        <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>Spanisch AuslandsvorbereitungskursSpanish - Preparation for Study Abroad</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-    </row>
-    <row r="2" spans="1:14" s="67" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="80" t="str">
-        <f>"Dozent/in: "&amp;Spanisch!B31</f>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+    </row>
+    <row r="2" spans="1:14" s="66" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="78" t="str">
+        <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v xml:space="preserve">Dozent/in: </v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81" t="str">
-        <f>"Semster: "&amp;Spanisch!B36</f>
-        <v>Semster: WS 2019/2020</v>
-      </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-    </row>
-    <row r="3" spans="1:14" s="68" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79" t="str">
+        <f>"Semster: "&amp;Notenliste!B36</f>
+        <v>Semster: SS 2021</v>
+      </c>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+    </row>
+    <row r="3" spans="1:14" s="67" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>26</v>
       </c>
@@ -4299,7 +4312,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -4336,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="18" t="str">
-        <f>UPPER(Spanisch!H2)</f>
+        <f>UPPER(Notenliste!H2)</f>
         <v/>
       </c>
       <c r="K4" s="18" t="str">
@@ -4344,19 +4357,19 @@
         <v/>
       </c>
       <c r="L4" s="18" t="str">
-        <f>Spanisch!F2</f>
+        <f>Notenliste!F2</f>
         <v>KP</v>
       </c>
       <c r="M4" s="18">
-        <f>Spanisch!E2</f>
+        <f>Notenliste!E2</f>
         <v>0</v>
       </c>
       <c r="N4" s="20" t="str">
-        <f>UPPER(Spanisch!J2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18">
         <v>2</v>
       </c>
@@ -4393,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="18" t="str">
-        <f>UPPER(Spanisch!H3)</f>
+        <f>UPPER(Notenliste!H3)</f>
         <v/>
       </c>
       <c r="K5" s="18" t="str">
@@ -4401,19 +4414,19 @@
         <v/>
       </c>
       <c r="L5" s="18" t="str">
-        <f>Spanisch!F3</f>
+        <f>Notenliste!F3</f>
         <v>KP</v>
       </c>
       <c r="M5" s="18">
-        <f>Spanisch!E3</f>
+        <f>Notenliste!E3</f>
         <v>0</v>
       </c>
       <c r="N5" s="20" t="str">
-        <f>UPPER(Spanisch!J3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>3</v>
       </c>
@@ -4450,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="18" t="str">
-        <f>UPPER(Spanisch!H4)</f>
+        <f>UPPER(Notenliste!H4)</f>
         <v/>
       </c>
       <c r="K6" s="18" t="str">
@@ -4458,19 +4471,19 @@
         <v/>
       </c>
       <c r="L6" s="18" t="str">
-        <f>Spanisch!F4</f>
+        <f>Notenliste!F4</f>
         <v>KP</v>
       </c>
       <c r="M6" s="18">
-        <f>Spanisch!E4</f>
+        <f>Notenliste!E4</f>
         <v>0</v>
       </c>
       <c r="N6" s="20" t="str">
-        <f>UPPER(Spanisch!J4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="18">
         <v>4</v>
       </c>
@@ -4507,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="18" t="str">
-        <f>UPPER(Spanisch!H5)</f>
+        <f>UPPER(Notenliste!H5)</f>
         <v/>
       </c>
       <c r="K7" s="18" t="str">
@@ -4515,19 +4528,19 @@
         <v/>
       </c>
       <c r="L7" s="18" t="str">
-        <f>Spanisch!F5</f>
+        <f>Notenliste!F5</f>
         <v>KP</v>
       </c>
       <c r="M7" s="18">
-        <f>Spanisch!E5</f>
+        <f>Notenliste!E5</f>
         <v>0</v>
       </c>
       <c r="N7" s="20" t="str">
-        <f>UPPER(Spanisch!J5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18">
         <v>5</v>
       </c>
@@ -4564,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="18" t="str">
-        <f>UPPER(Spanisch!H6)</f>
+        <f>UPPER(Notenliste!H6)</f>
         <v/>
       </c>
       <c r="K8" s="18" t="str">
@@ -4572,19 +4585,19 @@
         <v/>
       </c>
       <c r="L8" s="18" t="str">
-        <f>Spanisch!F6</f>
+        <f>Notenliste!F6</f>
         <v>KP</v>
       </c>
       <c r="M8" s="18">
-        <f>Spanisch!E6</f>
+        <f>Notenliste!E6</f>
         <v>0</v>
       </c>
       <c r="N8" s="20" t="str">
-        <f>UPPER(Spanisch!J6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="18">
         <v>6</v>
       </c>
@@ -4621,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="18" t="str">
-        <f>UPPER(Spanisch!H7)</f>
+        <f>UPPER(Notenliste!H7)</f>
         <v/>
       </c>
       <c r="K9" s="18" t="str">
@@ -4629,19 +4642,19 @@
         <v/>
       </c>
       <c r="L9" s="18" t="str">
-        <f>Spanisch!F7</f>
+        <f>Notenliste!F7</f>
         <v>KP</v>
       </c>
       <c r="M9" s="18">
-        <f>Spanisch!E7</f>
+        <f>Notenliste!E7</f>
         <v>0</v>
       </c>
       <c r="N9" s="20" t="str">
-        <f>UPPER(Spanisch!J7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18">
         <v>7</v>
       </c>
@@ -4678,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="18" t="str">
-        <f>UPPER(Spanisch!H8)</f>
+        <f>UPPER(Notenliste!H8)</f>
         <v/>
       </c>
       <c r="K10" s="18" t="str">
@@ -4686,19 +4699,19 @@
         <v/>
       </c>
       <c r="L10" s="18" t="str">
-        <f>Spanisch!F8</f>
+        <f>Notenliste!F8</f>
         <v>KP</v>
       </c>
       <c r="M10" s="18">
-        <f>Spanisch!E8</f>
+        <f>Notenliste!E8</f>
         <v>0</v>
       </c>
       <c r="N10" s="20" t="str">
-        <f>UPPER(Spanisch!J8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="18">
         <v>8</v>
       </c>
@@ -4735,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="18" t="str">
-        <f>UPPER(Spanisch!H9)</f>
+        <f>UPPER(Notenliste!H9)</f>
         <v/>
       </c>
       <c r="K11" s="18" t="str">
@@ -4743,19 +4756,19 @@
         <v/>
       </c>
       <c r="L11" s="18" t="str">
-        <f>Spanisch!F9</f>
+        <f>Notenliste!F9</f>
         <v>KP</v>
       </c>
       <c r="M11" s="18">
-        <f>Spanisch!E9</f>
+        <f>Notenliste!E9</f>
         <v>0</v>
       </c>
       <c r="N11" s="20" t="str">
-        <f>UPPER(Spanisch!J9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J9)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="18">
         <v>9</v>
       </c>
@@ -4792,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="18" t="str">
-        <f>UPPER(Spanisch!H10)</f>
+        <f>UPPER(Notenliste!H10)</f>
         <v/>
       </c>
       <c r="K12" s="18" t="str">
@@ -4800,19 +4813,19 @@
         <v/>
       </c>
       <c r="L12" s="18" t="str">
-        <f>Spanisch!F10</f>
+        <f>Notenliste!F10</f>
         <v>KP</v>
       </c>
       <c r="M12" s="18">
-        <f>Spanisch!E10</f>
+        <f>Notenliste!E10</f>
         <v>0</v>
       </c>
       <c r="N12" s="20" t="str">
-        <f>UPPER(Spanisch!J10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J10)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -4849,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="18" t="str">
-        <f>UPPER(Spanisch!H11)</f>
+        <f>UPPER(Notenliste!H11)</f>
         <v/>
       </c>
       <c r="K13" s="18" t="str">
@@ -4857,19 +4870,19 @@
         <v/>
       </c>
       <c r="L13" s="18" t="str">
-        <f>Spanisch!F11</f>
+        <f>Notenliste!F11</f>
         <v>KP</v>
       </c>
       <c r="M13" s="18">
-        <f>Spanisch!E11</f>
+        <f>Notenliste!E11</f>
         <v>0</v>
       </c>
       <c r="N13" s="20" t="str">
-        <f>UPPER(Spanisch!J11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J11)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -4906,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="18" t="str">
-        <f>UPPER(Spanisch!H12)</f>
+        <f>UPPER(Notenliste!H12)</f>
         <v/>
       </c>
       <c r="K14" s="18" t="str">
@@ -4914,19 +4927,19 @@
         <v/>
       </c>
       <c r="L14" s="18" t="str">
-        <f>Spanisch!F12</f>
+        <f>Notenliste!F12</f>
         <v>KP</v>
       </c>
       <c r="M14" s="18">
-        <f>Spanisch!E12</f>
+        <f>Notenliste!E12</f>
         <v>0</v>
       </c>
       <c r="N14" s="20" t="str">
-        <f>UPPER(Spanisch!J12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J12)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -4963,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="18" t="str">
-        <f>UPPER(Spanisch!H13)</f>
+        <f>UPPER(Notenliste!H13)</f>
         <v/>
       </c>
       <c r="K15" s="18" t="str">
@@ -4971,19 +4984,19 @@
         <v/>
       </c>
       <c r="L15" s="18" t="str">
-        <f>Spanisch!F13</f>
+        <f>Notenliste!F13</f>
         <v>KP</v>
       </c>
       <c r="M15" s="18">
-        <f>Spanisch!E13</f>
+        <f>Notenliste!E13</f>
         <v>0</v>
       </c>
       <c r="N15" s="20" t="str">
-        <f>UPPER(Spanisch!J13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J13)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -5020,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="18" t="str">
-        <f>UPPER(Spanisch!H14)</f>
+        <f>UPPER(Notenliste!H14)</f>
         <v/>
       </c>
       <c r="K16" s="18" t="str">
@@ -5028,19 +5041,19 @@
         <v/>
       </c>
       <c r="L16" s="18" t="str">
-        <f>Spanisch!F14</f>
+        <f>Notenliste!F14</f>
         <v>KP</v>
       </c>
       <c r="M16" s="18">
-        <f>Spanisch!E14</f>
+        <f>Notenliste!E14</f>
         <v>0</v>
       </c>
       <c r="N16" s="20" t="str">
-        <f>UPPER(Spanisch!J14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="18">
         <v>14</v>
       </c>
@@ -5077,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="18" t="str">
-        <f>UPPER(Spanisch!H15)</f>
+        <f>UPPER(Notenliste!H15)</f>
         <v/>
       </c>
       <c r="K17" s="18" t="str">
@@ -5085,19 +5098,19 @@
         <v/>
       </c>
       <c r="L17" s="18" t="str">
-        <f>Spanisch!F15</f>
+        <f>Notenliste!F15</f>
         <v>KP</v>
       </c>
       <c r="M17" s="18">
-        <f>Spanisch!E15</f>
+        <f>Notenliste!E15</f>
         <v>0</v>
       </c>
       <c r="N17" s="20" t="str">
-        <f>UPPER(Spanisch!J15)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J15)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -5134,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="18" t="str">
-        <f>UPPER(Spanisch!H16)</f>
+        <f>UPPER(Notenliste!H16)</f>
         <v/>
       </c>
       <c r="K18" s="18" t="str">
@@ -5142,19 +5155,19 @@
         <v/>
       </c>
       <c r="L18" s="18" t="str">
-        <f>Spanisch!F16</f>
+        <f>Notenliste!F16</f>
         <v>KP</v>
       </c>
       <c r="M18" s="18">
-        <f>Spanisch!E16</f>
+        <f>Notenliste!E16</f>
         <v>0</v>
       </c>
       <c r="N18" s="20" t="str">
-        <f>UPPER(Spanisch!J16)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J16)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -5191,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="18" t="str">
-        <f>UPPER(Spanisch!H17)</f>
+        <f>UPPER(Notenliste!H17)</f>
         <v/>
       </c>
       <c r="K19" s="18" t="str">
@@ -5199,19 +5212,19 @@
         <v/>
       </c>
       <c r="L19" s="18" t="str">
-        <f>Spanisch!F17</f>
+        <f>Notenliste!F17</f>
         <v>KP</v>
       </c>
       <c r="M19" s="18">
-        <f>Spanisch!E17</f>
+        <f>Notenliste!E17</f>
         <v>0</v>
       </c>
       <c r="N19" s="20" t="str">
-        <f>UPPER(Spanisch!J17)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J17)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -5248,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="18" t="str">
-        <f>UPPER(Spanisch!H18)</f>
+        <f>UPPER(Notenliste!H18)</f>
         <v/>
       </c>
       <c r="K20" s="18" t="str">
@@ -5256,19 +5269,19 @@
         <v/>
       </c>
       <c r="L20" s="18" t="str">
-        <f>Spanisch!F18</f>
+        <f>Notenliste!F18</f>
         <v>KP</v>
       </c>
       <c r="M20" s="18">
-        <f>Spanisch!E18</f>
+        <f>Notenliste!E18</f>
         <v>0</v>
       </c>
       <c r="N20" s="20" t="str">
-        <f>UPPER(Spanisch!J18)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="18">
         <v>18</v>
       </c>
@@ -5305,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="18" t="str">
-        <f>UPPER(Spanisch!H19)</f>
+        <f>UPPER(Notenliste!H19)</f>
         <v/>
       </c>
       <c r="K21" s="18" t="str">
@@ -5313,19 +5326,19 @@
         <v/>
       </c>
       <c r="L21" s="18" t="str">
-        <f>Spanisch!F19</f>
+        <f>Notenliste!F19</f>
         <v>KP</v>
       </c>
       <c r="M21" s="18">
-        <f>Spanisch!E19</f>
+        <f>Notenliste!E19</f>
         <v>0</v>
       </c>
       <c r="N21" s="20" t="str">
-        <f>UPPER(Spanisch!J19)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J19)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>19</v>
       </c>
@@ -5362,7 +5375,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="18" t="str">
-        <f>UPPER(Spanisch!H20)</f>
+        <f>UPPER(Notenliste!H20)</f>
         <v/>
       </c>
       <c r="K22" s="18" t="str">
@@ -5370,19 +5383,19 @@
         <v/>
       </c>
       <c r="L22" s="18" t="str">
-        <f>Spanisch!F20</f>
+        <f>Notenliste!F20</f>
         <v>KP</v>
       </c>
       <c r="M22" s="18">
-        <f>Spanisch!E20</f>
+        <f>Notenliste!E20</f>
         <v>0</v>
       </c>
       <c r="N22" s="20" t="str">
-        <f>UPPER(Spanisch!J20)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J20)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="18">
         <v>20</v>
       </c>
@@ -5419,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="18" t="str">
-        <f>UPPER(Spanisch!H21)</f>
+        <f>UPPER(Notenliste!H21)</f>
         <v/>
       </c>
       <c r="K23" s="18" t="str">
@@ -5427,19 +5440,19 @@
         <v/>
       </c>
       <c r="L23" s="18" t="str">
-        <f>Spanisch!F21</f>
+        <f>Notenliste!F21</f>
         <v>KP</v>
       </c>
       <c r="M23" s="18">
-        <f>Spanisch!E21</f>
+        <f>Notenliste!E21</f>
         <v>0</v>
       </c>
       <c r="N23" s="20" t="str">
-        <f>UPPER(Spanisch!J21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="18">
         <v>21</v>
       </c>
@@ -5476,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="18" t="str">
-        <f>UPPER(Spanisch!H22)</f>
+        <f>UPPER(Notenliste!H22)</f>
         <v/>
       </c>
       <c r="K24" s="18" t="str">
@@ -5484,19 +5497,19 @@
         <v/>
       </c>
       <c r="L24" s="18" t="str">
-        <f>Spanisch!F22</f>
+        <f>Notenliste!F22</f>
         <v>KP</v>
       </c>
       <c r="M24" s="18">
-        <f>Spanisch!E22</f>
+        <f>Notenliste!E22</f>
         <v>0</v>
       </c>
       <c r="N24" s="20" t="str">
-        <f>UPPER(Spanisch!J22)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J22)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="18">
         <v>22</v>
       </c>
@@ -5533,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="18" t="str">
-        <f>UPPER(Spanisch!H23)</f>
+        <f>UPPER(Notenliste!H23)</f>
         <v/>
       </c>
       <c r="K25" s="18" t="str">
@@ -5541,19 +5554,19 @@
         <v/>
       </c>
       <c r="L25" s="18" t="str">
-        <f>Spanisch!F23</f>
+        <f>Notenliste!F23</f>
         <v>KP</v>
       </c>
       <c r="M25" s="18">
-        <f>Spanisch!E23</f>
+        <f>Notenliste!E23</f>
         <v>0</v>
       </c>
       <c r="N25" s="20" t="str">
-        <f>UPPER(Spanisch!J23)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J23)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="18">
         <v>23</v>
       </c>
@@ -5590,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="18" t="str">
-        <f>UPPER(Spanisch!H24)</f>
+        <f>UPPER(Notenliste!H24)</f>
         <v/>
       </c>
       <c r="K26" s="18" t="str">
@@ -5598,19 +5611,19 @@
         <v/>
       </c>
       <c r="L26" s="18" t="str">
-        <f>Spanisch!F24</f>
+        <f>Notenliste!F24</f>
         <v>KP</v>
       </c>
       <c r="M26" s="18">
-        <f>Spanisch!E24</f>
+        <f>Notenliste!E24</f>
         <v>0</v>
       </c>
       <c r="N26" s="20" t="str">
-        <f>UPPER(Spanisch!J24)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J24)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="18">
         <v>24</v>
       </c>
@@ -5647,7 +5660,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="18" t="str">
-        <f>UPPER(Spanisch!H25)</f>
+        <f>UPPER(Notenliste!H25)</f>
         <v/>
       </c>
       <c r="K27" s="18" t="str">
@@ -5655,19 +5668,19 @@
         <v/>
       </c>
       <c r="L27" s="18" t="str">
-        <f>Spanisch!F25</f>
+        <f>Notenliste!F25</f>
         <v>KP</v>
       </c>
       <c r="M27" s="18">
-        <f>Spanisch!E25</f>
+        <f>Notenliste!E25</f>
         <v>0</v>
       </c>
       <c r="N27" s="20" t="str">
-        <f>UPPER(Spanisch!J25)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <f>UPPER(Notenliste!J25)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="18">
         <v>25</v>
       </c>
@@ -5704,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="18" t="str">
-        <f>UPPER(Spanisch!H26)</f>
+        <f>UPPER(Notenliste!H26)</f>
         <v/>
       </c>
       <c r="K28" s="18" t="str">
@@ -5712,28 +5725,28 @@
         <v/>
       </c>
       <c r="L28" s="18" t="str">
-        <f>Spanisch!F26</f>
+        <f>Notenliste!F26</f>
         <v>KP</v>
       </c>
       <c r="M28" s="18">
-        <f>Spanisch!E26</f>
+        <f>Notenliste!E26</f>
         <v>0</v>
       </c>
       <c r="N28" s="20" t="str">
-        <f>UPPER(Spanisch!J26)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="64"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
+        <f>UPPER(Notenliste!J26)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="63"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="18">
         <f>COUNTIF(J4:J28,"X")</f>
         <v>0</v>
@@ -5742,92 +5755,92 @@
         <f>COUNTIF(K4:K28,"X")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="66"/>
-    </row>
-    <row r="30" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="82" t="s">
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="65"/>
+    </row>
+    <row r="30" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-    </row>
-    <row r="31" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="83"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-      <c r="N31" s="83"/>
-    </row>
-    <row r="32" spans="1:14" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="83"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-      <c r="N32" s="83"/>
-    </row>
-    <row r="33" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="83"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-      <c r="N33" s="83"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="83"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="67"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+    </row>
+    <row r="31" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
+      <c r="L31" s="81"/>
+      <c r="M31" s="81"/>
+      <c r="N31" s="81"/>
+    </row>
+    <row r="32" spans="1:14" s="66" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="81"/>
+      <c r="M32" s="81"/>
+      <c r="N32" s="81"/>
+    </row>
+    <row r="33" spans="1:15" s="66" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="81"/>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="66"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
@@ -5854,7 +5867,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AE30"/>
@@ -5863,127 +5876,127 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.41796875" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.41796875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="6.41796875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="9.68359375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="0.83984375" style="23" customWidth="1"/>
-    <col min="7" max="20" width="4.68359375" style="23" customWidth="1"/>
-    <col min="21" max="21" width="0.83984375" style="23" customWidth="1"/>
-    <col min="22" max="22" width="5.68359375" style="60" customWidth="1"/>
-    <col min="23" max="23" width="5.68359375" style="61" customWidth="1"/>
-    <col min="24" max="24" width="5.68359375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3984375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="6.3984375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.73046875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="0.86328125" style="23" customWidth="1"/>
+    <col min="7" max="20" width="4.73046875" style="23" customWidth="1"/>
+    <col min="21" max="21" width="0.86328125" style="23" customWidth="1"/>
+    <col min="22" max="22" width="5.73046875" style="59" customWidth="1"/>
+    <col min="23" max="23" width="5.73046875" style="60" customWidth="1"/>
+    <col min="24" max="24" width="5.73046875" style="43" customWidth="1"/>
     <col min="25" max="31" width="0" style="21" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.41796875" style="21" hidden="1"/>
+    <col min="32" max="16384" width="11.3984375" style="21" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="86" t="str">
-        <f>Spanisch!B34&amp;Spanisch!B35</f>
+    <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="84" t="str">
+        <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>Spanisch AuslandsvorbereitungskursSpanish - Preparation for Study Abroad</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
-    </row>
-    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+    </row>
+    <row r="2" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-    </row>
-    <row r="3" spans="1:24" s="49" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="87" t="str">
-        <f>"Dozent/in: "&amp;Spanisch!B31</f>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2" s="84"/>
+    </row>
+    <row r="3" spans="1:24" s="48" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="85" t="str">
+        <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v xml:space="preserve">Dozent/in: </v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-    </row>
-    <row r="4" spans="1:24" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="89" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="86"/>
+      <c r="Q3" s="86"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="86"/>
+      <c r="T3" s="86"/>
+      <c r="U3" s="86"/>
+      <c r="V3" s="86"/>
+      <c r="W3" s="86"/>
+      <c r="X3" s="86"/>
+    </row>
+    <row r="4" spans="1:24" s="17" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="15"/>
@@ -5997,25 +6010,25 @@
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="93" t="s">
+      <c r="U4" s="51"/>
+      <c r="V4" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="84" t="s">
+      <c r="W4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="X4" s="84" t="s">
+      <c r="X4" s="82" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="17" customFormat="1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="51">
+    <row r="5" spans="1:24" s="17" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="50">
         <v>1</v>
       </c>
       <c r="H5" s="15">
@@ -6057,12 +6070,12 @@
       <c r="T5" s="15">
         <v>14</v>
       </c>
-      <c r="U5" s="54"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="U5" s="53"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="18">
         <v>1</v>
       </c>
@@ -6082,27 +6095,27 @@
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-    </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+    </row>
+    <row r="7" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="18">
         <v>2</v>
       </c>
@@ -6122,27 +6135,27 @@
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-    </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="57"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+    </row>
+    <row r="8" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="18">
         <v>3</v>
       </c>
@@ -6162,27 +6175,27 @@
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="56"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-    </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="57"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="56"/>
+    </row>
+    <row r="9" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="18">
         <v>4</v>
       </c>
@@ -6202,27 +6215,27 @@
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-    </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9" s="57"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+    </row>
+    <row r="10" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="18">
         <v>5</v>
       </c>
@@ -6242,27 +6255,27 @@
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="58"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-    </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10" s="57"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+    </row>
+    <row r="11" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="18">
         <v>6</v>
       </c>
@@ -6282,27 +6295,27 @@
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-    </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" s="57"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+    </row>
+    <row r="12" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="18">
         <v>7</v>
       </c>
@@ -6322,27 +6335,27 @@
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="58"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-    </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" s="57"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+    </row>
+    <row r="13" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="18">
         <v>8</v>
       </c>
@@ -6362,27 +6375,27 @@
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-    </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13" s="57"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+    </row>
+    <row r="14" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="18">
         <v>9</v>
       </c>
@@ -6402,27 +6415,27 @@
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-    </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="57"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+    </row>
+    <row r="15" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="18">
         <v>10</v>
       </c>
@@ -6442,27 +6455,27 @@
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-    </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" s="57"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+    </row>
+    <row r="16" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="18">
         <v>11</v>
       </c>
@@ -6482,27 +6495,27 @@
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-    </row>
-    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" s="57"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+    </row>
+    <row r="17" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="18">
         <v>12</v>
       </c>
@@ -6522,27 +6535,27 @@
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="58"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="57"/>
-      <c r="X17" s="57"/>
-    </row>
-    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17" s="57"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+    </row>
+    <row r="18" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A18" s="18">
         <v>13</v>
       </c>
@@ -6562,27 +6575,27 @@
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="57"/>
-      <c r="X18" s="57"/>
-    </row>
-    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18" s="57"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+    </row>
+    <row r="19" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A19" s="18">
         <v>14</v>
       </c>
@@ -6602,27 +6615,27 @@
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="57"/>
-    </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" s="57"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+    </row>
+    <row r="20" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A20" s="18">
         <v>15</v>
       </c>
@@ -6642,27 +6655,27 @@
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-    </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" s="57"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+    </row>
+    <row r="21" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A21" s="18">
         <v>16</v>
       </c>
@@ -6682,27 +6695,27 @@
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="58"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-    </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21" s="57"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+    </row>
+    <row r="22" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A22" s="18">
         <v>17</v>
       </c>
@@ -6722,27 +6735,27 @@
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-    </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22" s="57"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+    </row>
+    <row r="23" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A23" s="18">
         <v>18</v>
       </c>
@@ -6762,27 +6775,27 @@
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="56"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="58"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-    </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23" s="57"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+    </row>
+    <row r="24" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A24" s="18">
         <v>19</v>
       </c>
@@ -6802,27 +6815,27 @@
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="58"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-    </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24" s="57"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+    </row>
+    <row r="25" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="18">
         <v>20</v>
       </c>
@@ -6842,27 +6855,27 @@
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="58"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="57"/>
-      <c r="X25" s="57"/>
-    </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25" s="57"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+    </row>
+    <row r="26" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="18">
         <v>21</v>
       </c>
@@ -6882,27 +6895,27 @@
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="58"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-    </row>
-    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26" s="57"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+    </row>
+    <row r="27" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="18">
         <v>22</v>
       </c>
@@ -6922,27 +6935,27 @@
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-    </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="57"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+    </row>
+    <row r="28" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="18">
         <v>23</v>
       </c>
@@ -6962,27 +6975,27 @@
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="58"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-    </row>
-    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="57"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+    </row>
+    <row r="29" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A29" s="18">
         <v>24</v>
       </c>
@@ -7002,27 +7015,27 @@
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="56"/>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="56"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="57"/>
-      <c r="X29" s="57"/>
-    </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="57"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+    </row>
+    <row r="30" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A30" s="18">
         <v>25</v>
       </c>
@@ -7042,25 +7055,25 @@
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="F30" s="59"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="57"/>
-      <c r="X30" s="57"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
@@ -7094,548 +7107,549 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18" style="70" customWidth="1"/>
-    <col min="2" max="2" width="12.83984375" customWidth="1"/>
-    <col min="4" max="4" width="15.41796875" style="74" customWidth="1"/>
-    <col min="5" max="5" width="18.15625" style="72" customWidth="1"/>
-    <col min="6" max="6" width="35.41796875" customWidth="1"/>
-    <col min="7" max="7" width="31.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="46.41796875" customWidth="1"/>
+    <col min="1" max="1" width="18" style="69" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" customWidth="1"/>
+    <col min="4" max="4" width="15.3984375" style="73" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" style="71" customWidth="1"/>
+    <col min="6" max="6" width="35.3984375" customWidth="1"/>
+    <col min="7" max="7" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="46.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="69" t="s">
         <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="72" t="s">
-        <v>75</v>
+      <c r="E1" s="71" t="s">
+        <v>65</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="70" t="str">
-        <f>IF(Spanisch!D2=0," ",Spanisch!D2)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="69" t="str">
+        <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
       </c>
-      <c r="C2" s="73">
-        <f>IF(Spanisch!D2&lt;&gt;0,Spanisch!$B$33," ")</f>
+      <c r="C2" s="72">
+        <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v>2</v>
       </c>
-      <c r="D2" s="75" t="str">
-        <f>IF(Spanisch!F2="KP"," ",IF(Spanisch!F2="NB","nicht bestanden",Spanisch!F2))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E2" s="72">
-        <f>IF(Spanisch!D2&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v>43861</v>
-      </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="70" t="str">
-        <f>IF(Spanisch!D3=0," ",Spanisch!D3)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C3" s="73" t="str">
-        <f>IF(Spanisch!D3&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D3" s="75" t="str">
-        <f>IF(Spanisch!F3="KP"," ",IF(Spanisch!F3="NB","nicht bestanden",Spanisch!F3))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E3" s="72" t="str">
-        <f>IF(Spanisch!D3&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="70" t="str">
-        <f>IF(Spanisch!D4=0," ",Spanisch!D4)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C4" s="73" t="str">
-        <f>IF(Spanisch!D4&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D4" s="75" t="str">
-        <f>IF(Spanisch!F4="KP"," ",IF(Spanisch!F4="NB","nicht bestanden",Spanisch!F4))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E4" s="72" t="str">
-        <f>IF(Spanisch!D4&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="70" t="str">
-        <f>IF(Spanisch!D5=0," ",Spanisch!D5)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C5" s="73" t="str">
-        <f>IF(Spanisch!D5&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D5" s="75" t="str">
-        <f>IF(Spanisch!F5="KP"," ",IF(Spanisch!F5="NB","nicht bestanden",Spanisch!F5))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E5" s="72" t="str">
-        <f>IF(Spanisch!D5&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="70" t="str">
-        <f>IF(Spanisch!D6=0," ",Spanisch!D6)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C6" s="73" t="str">
-        <f>IF(Spanisch!D6&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D6" s="75" t="str">
-        <f>IF(Spanisch!F6="KP"," ",IF(Spanisch!F6="NB","nicht bestanden",Spanisch!F6))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E6" s="72" t="str">
-        <f>IF(Spanisch!D6&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F6" s="73"/>
-      <c r="G6" s="73"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="70" t="str">
-        <f>IF(Spanisch!D7=0," ",Spanisch!D7)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C7" s="73" t="str">
-        <f>IF(Spanisch!D7&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D7" s="75" t="str">
-        <f>IF(Spanisch!F7="KP"," ",IF(Spanisch!F7="NB","nicht bestanden",Spanisch!F7))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E7" s="72" t="str">
-        <f>IF(Spanisch!D7&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="70" t="str">
-        <f>IF(Spanisch!D8=0," ",Spanisch!D8)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C8" s="73" t="str">
-        <f>IF(Spanisch!D8&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D8" s="75" t="str">
-        <f>IF(Spanisch!F8="KP"," ",IF(Spanisch!F8="NB","nicht bestanden",Spanisch!F8))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E8" s="72" t="str">
-        <f>IF(Spanisch!D8&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="70" t="str">
-        <f>IF(Spanisch!D9=0," ",Spanisch!D9)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C9" s="73" t="str">
-        <f>IF(Spanisch!D9&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D9" s="75" t="str">
-        <f>IF(Spanisch!F9="KP"," ",IF(Spanisch!F9="NB","nicht bestanden",Spanisch!F9))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E9" s="72" t="str">
-        <f>IF(Spanisch!D9&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="70" t="str">
-        <f>IF(Spanisch!D10=0," ",Spanisch!D10)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C10" s="73" t="str">
-        <f>IF(Spanisch!D10&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D10" s="75" t="str">
-        <f>IF(Spanisch!F10="KP"," ",IF(Spanisch!F10="NB","nicht bestanden",Spanisch!F10))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E10" s="72" t="str">
-        <f>IF(Spanisch!D10&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="70" t="str">
-        <f>IF(Spanisch!D11=0," ",Spanisch!D11)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C11" s="73" t="str">
-        <f>IF(Spanisch!D11&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D11" s="75" t="str">
-        <f>IF(Spanisch!F11="KP"," ",IF(Spanisch!F11="NB","nicht bestanden",Spanisch!F11))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E11" s="72" t="str">
-        <f>IF(Spanisch!D11&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="70" t="str">
-        <f>IF(Spanisch!D12=0," ",Spanisch!D12)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C12" s="73" t="str">
-        <f>IF(Spanisch!D12&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D12" s="75" t="str">
-        <f>IF(Spanisch!F12="KP"," ",IF(Spanisch!F12="NB","nicht bestanden",Spanisch!F12))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E12" s="72" t="str">
-        <f>IF(Spanisch!D12&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="70" t="str">
-        <f>IF(Spanisch!D13=0," ",Spanisch!D13)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C13" s="73" t="str">
-        <f>IF(Spanisch!D13&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D13" s="75" t="str">
-        <f>IF(Spanisch!F13="KP"," ",IF(Spanisch!F13="NB","nicht bestanden",Spanisch!F13))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E13" s="72" t="str">
-        <f>IF(Spanisch!D13&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="70" t="str">
-        <f>IF(Spanisch!D14=0," ",Spanisch!D14)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C14" s="73" t="str">
-        <f>IF(Spanisch!D14&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D14" s="75" t="str">
-        <f>IF(Spanisch!F14="KP"," ",IF(Spanisch!F14="NB","nicht bestanden",Spanisch!F14))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E14" s="72" t="str">
-        <f>IF(Spanisch!D14&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="70" t="str">
-        <f>IF(Spanisch!D15=0," ",Spanisch!D15)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C15" s="73" t="str">
-        <f>IF(Spanisch!D15&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D15" s="75" t="str">
-        <f>IF(Spanisch!F15="KP"," ",IF(Spanisch!F15="NB","nicht bestanden",Spanisch!F15))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E15" s="72" t="str">
-        <f>IF(Spanisch!D15&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="70" t="str">
-        <f>IF(Spanisch!D16=0," ",Spanisch!D16)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C16" s="73" t="str">
-        <f>IF(Spanisch!D16&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D16" s="75" t="str">
-        <f>IF(Spanisch!F16="KP"," ",IF(Spanisch!F16="NB","nicht bestanden",Spanisch!F16))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E16" s="72" t="str">
-        <f>IF(Spanisch!D16&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="70" t="str">
-        <f>IF(Spanisch!D17=0," ",Spanisch!D17)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C17" s="73" t="str">
-        <f>IF(Spanisch!D17&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D17" s="75" t="str">
-        <f>IF(Spanisch!F17="KP"," ",IF(Spanisch!F17="NB","nicht bestanden",Spanisch!F17))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E17" s="72" t="str">
-        <f>IF(Spanisch!D17&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="70" t="str">
-        <f>IF(Spanisch!D18=0," ",Spanisch!D18)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C18" s="73" t="str">
-        <f>IF(Spanisch!D18&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D18" s="75" t="str">
-        <f>IF(Spanisch!F18="KP"," ",IF(Spanisch!F18="NB","nicht bestanden",Spanisch!F18))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E18" s="72" t="str">
-        <f>IF(Spanisch!D18&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="70" t="str">
-        <f>IF(Spanisch!D19=0," ",Spanisch!D19)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C19" s="73" t="str">
-        <f>IF(Spanisch!D19&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D19" s="75" t="str">
-        <f>IF(Spanisch!F19="KP"," ",IF(Spanisch!F19="NB","nicht bestanden",Spanisch!F19))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E19" s="72" t="str">
-        <f>IF(Spanisch!D19&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="70" t="str">
-        <f>IF(Spanisch!D20=0," ",Spanisch!D20)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C20" s="73" t="str">
-        <f>IF(Spanisch!D20&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D20" s="75" t="str">
-        <f>IF(Spanisch!F20="KP"," ",IF(Spanisch!F20="NB","nicht bestanden",Spanisch!F20))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E20" s="72" t="str">
-        <f>IF(Spanisch!D20&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="70" t="str">
-        <f>IF(Spanisch!D21=0," ",Spanisch!D21)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C21" s="73" t="str">
-        <f>IF(Spanisch!D21&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D21" s="75" t="str">
-        <f>IF(Spanisch!F21="KP"," ",IF(Spanisch!F21="NB","nicht bestanden",Spanisch!F21))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E21" s="72" t="str">
-        <f>IF(Spanisch!D21&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="70" t="str">
-        <f>IF(Spanisch!D22=0," ",Spanisch!D22)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C22" s="73" t="str">
-        <f>IF(Spanisch!D22&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D22" s="75" t="str">
-        <f>IF(Spanisch!F22="KP"," ",IF(Spanisch!F22="NB","nicht bestanden",Spanisch!F22))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E22" s="72" t="str">
-        <f>IF(Spanisch!D22&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="70" t="str">
-        <f>IF(Spanisch!D23=0," ",Spanisch!D23)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C23" s="73" t="str">
-        <f>IF(Spanisch!D23&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D23" s="75" t="str">
-        <f>IF(Spanisch!F23="KP"," ",IF(Spanisch!F23="NB","nicht bestanden",Spanisch!F23))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E23" s="72" t="str">
-        <f>IF(Spanisch!D23&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="70" t="str">
-        <f>IF(Spanisch!D24=0," ",Spanisch!D24)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C24" s="73" t="str">
-        <f>IF(Spanisch!D24&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D24" s="75" t="str">
-        <f>IF(Spanisch!F24="KP"," ",IF(Spanisch!F24="NB","nicht bestanden",Spanisch!F24))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E24" s="72" t="str">
-        <f>IF(Spanisch!D24&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="70" t="str">
-        <f>IF(Spanisch!D25=0," ",Spanisch!D25)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C25" s="73" t="str">
-        <f>IF(Spanisch!D25&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D25" s="75" t="str">
-        <f>IF(Spanisch!F25="KP"," ",IF(Spanisch!F25="NB","nicht bestanden",Spanisch!F25))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E25" s="72" t="str">
-        <f>IF(Spanisch!D25&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="70" t="str">
-        <f>IF(Spanisch!D26=0," ",Spanisch!D26)</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="C26" s="73" t="str">
-        <f>IF(Spanisch!D26&lt;&gt;0,Spanisch!$B$33," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="D26" s="75" t="str">
-        <f>IF(Spanisch!F26="KP"," ",IF(Spanisch!F26="NB","nicht bestanden",Spanisch!F26))</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E26" s="72" t="str">
-        <f>IF(Spanisch!D26&lt;&gt;0,Spanisch!$B$37," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
+      <c r="D2" s="74" t="str">
+        <f>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E2" s="71">
+        <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v>44408</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="69" t="str">
+        <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C3" s="72" t="str">
+        <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D3" s="74" t="str">
+        <f>IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E3" s="71" t="str">
+        <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="69" t="str">
+        <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C4" s="72" t="str">
+        <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D4" s="74" t="str">
+        <f>IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E4" s="71" t="str">
+        <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="69" t="str">
+        <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C5" s="72" t="str">
+        <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D5" s="74" t="str">
+        <f>IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E5" s="71" t="str">
+        <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="69" t="str">
+        <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C6" s="72" t="str">
+        <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D6" s="74" t="str">
+        <f>IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E6" s="71" t="str">
+        <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="69" t="str">
+        <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C7" s="72" t="str">
+        <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D7" s="74" t="str">
+        <f>IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E7" s="71" t="str">
+        <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="69" t="str">
+        <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C8" s="72" t="str">
+        <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D8" s="74" t="str">
+        <f>IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E8" s="71" t="str">
+        <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="69" t="str">
+        <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C9" s="72" t="str">
+        <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D9" s="74" t="str">
+        <f>IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E9" s="71" t="str">
+        <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="69" t="str">
+        <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C10" s="72" t="str">
+        <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D10" s="74" t="str">
+        <f>IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E10" s="71" t="str">
+        <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="69" t="str">
+        <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C11" s="72" t="str">
+        <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D11" s="74" t="str">
+        <f>IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E11" s="71" t="str">
+        <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="69" t="str">
+        <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C12" s="72" t="str">
+        <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D12" s="74" t="str">
+        <f>IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E12" s="71" t="str">
+        <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="69" t="str">
+        <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C13" s="72" t="str">
+        <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D13" s="74" t="str">
+        <f>IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E13" s="71" t="str">
+        <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="69" t="str">
+        <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C14" s="72" t="str">
+        <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D14" s="74" t="str">
+        <f>IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E14" s="71" t="str">
+        <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="69" t="str">
+        <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C15" s="72" t="str">
+        <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D15" s="74" t="str">
+        <f>IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E15" s="71" t="str">
+        <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="69" t="str">
+        <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C16" s="72" t="str">
+        <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D16" s="74" t="str">
+        <f>IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E16" s="71" t="str">
+        <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="69" t="str">
+        <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C17" s="72" t="str">
+        <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D17" s="74" t="str">
+        <f>IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E17" s="71" t="str">
+        <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="69" t="str">
+        <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C18" s="72" t="str">
+        <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D18" s="74" t="str">
+        <f>IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E18" s="71" t="str">
+        <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="69" t="str">
+        <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C19" s="72" t="str">
+        <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D19" s="74" t="str">
+        <f>IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E19" s="71" t="str">
+        <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="69" t="str">
+        <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C20" s="72" t="str">
+        <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D20" s="74" t="str">
+        <f>IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E20" s="71" t="str">
+        <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="72"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="69" t="str">
+        <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C21" s="72" t="str">
+        <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D21" s="74" t="str">
+        <f>IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E21" s="71" t="str">
+        <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="69" t="str">
+        <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C22" s="72" t="str">
+        <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D22" s="74" t="str">
+        <f>IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E22" s="71" t="str">
+        <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="72"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="69" t="str">
+        <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C23" s="72" t="str">
+        <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D23" s="74" t="str">
+        <f>IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E23" s="71" t="str">
+        <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="69" t="str">
+        <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C24" s="72" t="str">
+        <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D24" s="74" t="str">
+        <f>IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E24" s="71" t="str">
+        <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" s="69" t="str">
+        <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C25" s="72" t="str">
+        <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D25" s="74" t="str">
+        <f>IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E25" s="71" t="str">
+        <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" s="69" t="str">
+        <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="C26" s="72" t="str">
+        <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="D26" s="74" t="str">
+        <f>IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E26" s="71" t="str">
+        <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$37," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
